--- a/Design/Menysystem.xlsx
+++ b/Design/Menysystem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="1980" windowHeight="8250"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="1980" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
     <dgm:pt modelId="{70B007C8-DE3F-431E-9D8E-C87D84B7AF97}" type="doc">
-      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1572,7 +1572,21 @@
     </dgm:pt>
     <dgm:pt modelId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1608,7 +1622,21 @@
     </dgm:pt>
     <dgm:pt modelId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1644,7 +1672,21 @@
     </dgm:pt>
     <dgm:pt modelId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1680,7 +1722,21 @@
     </dgm:pt>
     <dgm:pt modelId="{67F68FF6-4FAE-4601-918A-ABB200643558}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1716,7 +1772,21 @@
     </dgm:pt>
     <dgm:pt modelId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1752,7 +1822,21 @@
     </dgm:pt>
     <dgm:pt modelId="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1788,7 +1872,21 @@
     </dgm:pt>
     <dgm:pt modelId="{3B1EE728-4556-436B-977E-F448953CD4DB}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1824,7 +1922,21 @@
     </dgm:pt>
     <dgm:pt modelId="{860201BF-8817-4A79-AC40-D1434A876435}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1860,7 +1972,21 @@
     </dgm:pt>
     <dgm:pt modelId="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1896,7 +2022,21 @@
     </dgm:pt>
     <dgm:pt modelId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1932,7 +2072,21 @@
     </dgm:pt>
     <dgm:pt modelId="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1968,7 +2122,21 @@
     </dgm:pt>
     <dgm:pt modelId="{670AFC2F-B621-421A-94B2-288D45D95304}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2040,7 +2208,21 @@
     </dgm:pt>
     <dgm:pt modelId="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2076,7 +2258,21 @@
     </dgm:pt>
     <dgm:pt modelId="{E96E2997-7213-41BF-8FE3-37C0E0160469}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2112,7 +2308,21 @@
     </dgm:pt>
     <dgm:pt modelId="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2148,7 +2358,21 @@
     </dgm:pt>
     <dgm:pt modelId="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2184,7 +2408,21 @@
     </dgm:pt>
     <dgm:pt modelId="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2220,7 +2458,21 @@
     </dgm:pt>
     <dgm:pt modelId="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2244,6 +2496,56 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5FE7F9F8-8937-44C3-BA87-7689BA474009}" type="sibTrans" cxnId="{FA61BF7F-683D-44ED-8180-E15B1D47FBEF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9AA4CC46-815F-48BB-96B4-259B54ADA210}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE"/>
+            <a:t>Tutorial</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{32528C57-2EA0-43BD-812B-E79FDB706E81}" type="parTrans" cxnId="{761BEDA0-9F71-40ED-8F52-5F853FE20C1B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B691376B-6EB0-449A-A6ED-9F1F9794DE07}" type="sibTrans" cxnId="{761BEDA0-9F71-40ED-8F52-5F853FE20C1B}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2266,6 +2568,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{143A880F-E69E-4E07-8256-7519A2099B17}" type="pres">
       <dgm:prSet presAssocID="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" presName="hierRoot1" presStyleCnt="0">
@@ -2274,10 +2583,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{625B2143-7AD3-4C0F-8D33-AE9B34C4AD72}" type="pres">
       <dgm:prSet presAssocID="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" presName="rootComposite1" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D0542FC8-3ABC-4CF5-9C7F-6715BE3069B3}" type="pres">
       <dgm:prSet presAssocID="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
@@ -2297,14 +2620,35 @@
     <dgm:pt modelId="{8EACB4EF-31B8-4AF4-8887-94F99A4029D4}" type="pres">
       <dgm:prSet presAssocID="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" type="pres">
       <dgm:prSet presAssocID="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" presName="hierChild2" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1B53A340-7278-4282-BCA7-34529876A276}" type="pres">
-      <dgm:prSet presAssocID="{7CD02305-D6C9-46E0-9140-4811866B76F5}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{7CD02305-D6C9-46E0-9140-4811866B76F5}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" type="pres">
       <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="hierRoot2" presStyleCnt="0">
@@ -2313,13 +2657,27 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3799C5FD-41DD-43A6-A9EC-608E24B35486}" type="pres">
       <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4548DABE-FB19-4A56-98C5-7B3AE8CD1690}" type="pres">
-      <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="4">
+      <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2334,16 +2692,37 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1E91E9E5-DF7C-4B24-8A18-8260EB1CCE47}" type="pres">
-      <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" type="pres">
       <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{68D1782F-7F29-41C1-89E5-8E0F4B9D9A23}" type="pres">
       <dgm:prSet presAssocID="{A816D713-EC5F-4BF1-A72C-AE03F2A3E424}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" type="pres">
       <dgm:prSet presAssocID="{860201BF-8817-4A79-AC40-D1434A876435}" presName="hierRoot2" presStyleCnt="0">
@@ -2352,10 +2731,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C53D5A74-C19A-49CE-B4AD-1F0B9008F787}" type="pres">
       <dgm:prSet presAssocID="{860201BF-8817-4A79-AC40-D1434A876435}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{183A89F2-CE02-4D15-8AA7-82B94A25F0E9}" type="pres">
       <dgm:prSet presAssocID="{860201BF-8817-4A79-AC40-D1434A876435}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="7">
@@ -2364,18 +2757,46 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4A62C554-2B4B-4003-8894-3B67C6F45813}" type="pres">
       <dgm:prSet presAssocID="{860201BF-8817-4A79-AC40-D1434A876435}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" type="pres">
       <dgm:prSet presAssocID="{860201BF-8817-4A79-AC40-D1434A876435}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{877DCC39-D30C-449B-AA96-BFABDAEBC168}" type="pres">
-      <dgm:prSet presAssocID="{C913DA36-E2AD-47C8-8D70-003A11F74F03}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{C913DA36-E2AD-47C8-8D70-003A11F74F03}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" type="pres">
       <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="hierRoot2" presStyleCnt="0">
@@ -2384,13 +2805,27 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{99A135B2-5F74-4CCC-B18B-BD03E02F16FD}" type="pres">
       <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{13642BD0-DE59-48D2-BA02-ACD69C81E007}" type="pres">
-      <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="7">
+      <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2405,20 +2840,48 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6D416773-EAF7-418B-B839-6E53F8F5695E}" type="pres">
-      <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4F569DC4-DFA0-44F1-920D-263FC92D0D7C}" type="pres">
       <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F5080FD1-193D-4BC5-97DB-AB1A46D2BD33}" type="pres">
       <dgm:prSet presAssocID="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{73D5EA39-36D9-433B-8FD9-1AA78478AA13}" type="pres">
-      <dgm:prSet presAssocID="{ACCCC2FA-9961-4D37-BD90-CFA524CD0968}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{ACCCC2FA-9961-4D37-BD90-CFA524CD0968}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" type="pres">
       <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="hierRoot2" presStyleCnt="0">
@@ -2427,13 +2890,27 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{527FF6CF-2C8C-4155-94E1-A96D7E8B3B3F}" type="pres">
       <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2F6C6A87-31A5-45B7-AEF1-D7FA43CA1309}" type="pres">
-      <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="7">
+      <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2448,20 +2925,48 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{51A51A01-4F2D-48A0-A9DA-4C18F2871E02}" type="pres">
-      <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E8282368-1CC7-49BE-ACB1-0A56C3936D30}" type="pres">
       <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1CF0F9C5-51F3-43E2-9721-C2A4B957A379}" type="pres">
       <dgm:prSet presAssocID="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F49835A5-5DB8-42C9-A094-FE65EBE13F33}" type="pres">
-      <dgm:prSet presAssocID="{8F5A58CC-7EC0-4194-B8EA-BEF3DA58FA1F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{8F5A58CC-7EC0-4194-B8EA-BEF3DA58FA1F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" type="pres">
       <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="hierRoot2" presStyleCnt="0">
@@ -2470,34 +2975,83 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F54FDDEF-225F-4EC7-9297-8EE703DE46B6}" type="pres">
       <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E16BD780-C81B-4509-BCA8-98F45A48692B}" type="pres">
-      <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="7">
+      <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8B7DDB96-B2C0-44F2-81DE-A2F3F5026610}" type="pres">
-      <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E2970342-88BF-4C61-BBE1-5C2153020678}" type="pres">
       <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{37923B0A-F47E-47F2-AED1-1C0F7F2AD0EE}" type="pres">
       <dgm:prSet presAssocID="{E96E2997-7213-41BF-8FE3-37C0E0160469}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{10380F16-95A7-4D82-A30B-057DDDC37DE5}" type="pres">
-      <dgm:prSet presAssocID="{00CB54D2-223E-47F9-885C-3B077E92BD4C}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{00CB54D2-223E-47F9-885C-3B077E92BD4C}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A62404CF-F252-40A4-8801-B880CF46C103}" type="pres">
       <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="hierRoot2" presStyleCnt="0">
@@ -2506,38 +3060,94 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E420215C-99FC-4950-9D76-9BDD8174662F}" type="pres">
       <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9716CAD8-3C3E-4522-889B-E080BEBC9DD9}" type="pres">
-      <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="7">
+      <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EED3D681-F603-472B-AB9E-234C9A9F28E7}" type="pres">
-      <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8C8D7550-27FB-40D8-9506-50EFF2B881D6}" type="pres">
       <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{80A03204-7117-497C-BC0A-22AAB8C37810}" type="pres">
       <dgm:prSet presAssocID="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EBAFEF32-C607-4647-A4C6-1A8E5FD48893}" type="pres">
       <dgm:prSet presAssocID="{860201BF-8817-4A79-AC40-D1434A876435}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B69D99E1-C1ED-4423-BA45-9E4D685384FB}" type="pres">
       <dgm:prSet presAssocID="{A0056CD3-38B0-4C15-8DDA-90B4E02E89F4}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" type="pres">
       <dgm:prSet presAssocID="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" presName="hierRoot2" presStyleCnt="0">
@@ -2546,10 +3156,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9FEA722F-DA26-4E41-9EDE-F154062658D7}" type="pres">
       <dgm:prSet presAssocID="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5D2B7F2B-0B29-4488-A6E5-2EFA970D6B85}" type="pres">
       <dgm:prSet presAssocID="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="7">
@@ -2558,18 +3182,46 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B099BEEC-34B7-454A-B1F0-EDE86D1E7D3B}" type="pres">
       <dgm:prSet presAssocID="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{469CE801-92CF-4153-A4C0-565680798D90}" type="pres">
       <dgm:prSet presAssocID="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DE485A75-0288-4365-B104-3D508999408C}" type="pres">
-      <dgm:prSet presAssocID="{323BF271-2DB2-44A7-A647-4183DBDF773C}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{323BF271-2DB2-44A7-A647-4183DBDF773C}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{200DC69D-505F-4C55-A074-DE011337A3E3}" type="pres">
       <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="hierRoot2" presStyleCnt="0">
@@ -2578,42 +3230,94 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5E4EE6A0-F4B4-4145-BB49-65D06B37DCE3}" type="pres">
       <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5D2E00FC-F503-4E70-94CD-26E55B262F55}" type="pres">
-      <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="7">
+      <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6DCD138F-E6B2-473C-BFD2-ED0A0A23BF29}" type="pres">
-      <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8E17C02E-76B0-47B1-A5C0-F0A4CF0301C2}" type="pres">
       <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8047F633-92CD-49E4-8C8C-0F57E2FD63E0}" type="pres">
       <dgm:prSet presAssocID="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7300F207-78E3-4373-9433-2446A395F1F8}" type="pres">
       <dgm:prSet presAssocID="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C90A8526-C7F8-41AB-896D-205DF3529C95}" type="pres">
-      <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E6866069-E709-4D14-AC64-2E24210369BF}" type="pres">
-      <dgm:prSet presAssocID="{E22134EE-0567-4694-8FAF-F306C6140E90}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{E22134EE-0567-4694-8FAF-F306C6140E90}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" type="pres">
       <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="hierRoot2" presStyleCnt="0">
@@ -2622,30 +3326,72 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5439DA56-DC67-4729-9114-F92A9DCC5683}" type="pres">
       <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E4BEC828-51B0-48F3-96A5-0C96FE8C964A}" type="pres">
-      <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="4">
+      <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="7">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{ED0B238B-E25D-49DC-BDF0-280353404EDA}" type="pres">
-      <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" type="pres">
       <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6B617CEF-C370-4844-9DDA-BC1FD2DDA9A9}" type="pres">
-      <dgm:prSet presAssocID="{16554541-DF53-4091-8BE1-063E7A023751}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{16554541-DF53-4091-8BE1-063E7A023751}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" type="pres">
       <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="hierRoot2" presStyleCnt="0">
@@ -2654,34 +3400,83 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D34D78CE-76B8-4559-9B43-65998CD326B3}" type="pres">
       <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C0090BBE-342D-42F8-9C93-6328191002E5}" type="pres">
-      <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="7">
+      <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D5E77C82-62E9-47E2-9254-1B7391F2B56B}" type="pres">
-      <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2260B635-991C-4B6F-BBE6-7063565AEB6C}" type="pres">
       <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9D0C1B35-CA2A-4DBD-95BD-C7673DD13A16}" type="pres">
       <dgm:prSet presAssocID="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DDE4A896-771F-4E5C-A399-D401100434B8}" type="pres">
-      <dgm:prSet presAssocID="{D6BE1315-85AB-4B0E-8AA7-38E0B5B0D1FB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{D6BE1315-85AB-4B0E-8AA7-38E0B5B0D1FB}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" type="pres">
       <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="hierRoot2" presStyleCnt="0">
@@ -2690,38 +3485,105 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C26F58C3-B9A0-468F-9E3E-C563372A96E6}" type="pres">
       <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F92F3B4E-7767-4FCC-AF43-87EC5FE9B7B3}" type="pres">
-      <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="7">
+      <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6F664D7C-E1C7-4CE4-82F5-30BCAAB641D4}" type="pres">
-      <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{11195705-1F01-4A74-B622-0DED7A485BFB}" type="pres">
       <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E1C5B5F2-E2FC-4FD3-A60F-CA3F8F373C45}" type="pres">
       <dgm:prSet presAssocID="{670AFC2F-B621-421A-94B2-288D45D95304}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{37E3FA2E-4151-4EB2-B4DD-0B6B558F9CFB}" type="pres">
       <dgm:prSet presAssocID="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C90A8526-C7F8-41AB-896D-205DF3529C95}" type="pres">
+      <dgm:prSet presAssocID="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D87D00D3-4D8F-4CCF-9217-C89B63A31973}" type="pres">
-      <dgm:prSet presAssocID="{E3D313B5-E6F3-4486-9869-2B53E90804CD}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{E3D313B5-E6F3-4486-9869-2B53E90804CD}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" type="pres">
       <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="hierRoot2" presStyleCnt="0">
@@ -2730,13 +3592,27 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AF79D668-D5F3-450E-BD8A-A567C4372245}" type="pres">
       <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CD3D9B7B-32AF-48E7-A6B5-153335DA58ED}" type="pres">
-      <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="4">
+      <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2751,16 +3627,122 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{03877453-6CF3-4064-9FE5-8A6EC1F17229}" type="pres">
-      <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" type="pres">
       <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BE3D61E7-4F44-4C4B-8417-C0E21524D435}" type="pres">
+      <dgm:prSet presAssocID="{32528C57-2EA0-43BD-812B-E79FDB706E81}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FB56A55F-AECC-4E8D-B061-4BAC0890A8D1}" type="pres">
+      <dgm:prSet presAssocID="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{33142EA4-AA84-480C-AC5F-3E75CCFD66D1}" type="pres">
+      <dgm:prSet presAssocID="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7BE414DC-6F82-4B0D-BA9C-0E6D713746EF}" type="pres">
+      <dgm:prSet presAssocID="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="7">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D6997898-92B4-4B2E-91CB-3F028AC20ED4}" type="pres">
+      <dgm:prSet presAssocID="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="7"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E2F94FD-1524-4D41-9207-CABFE5782BC2}" type="pres">
+      <dgm:prSet presAssocID="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{26C16ED9-79B5-47C7-B1C5-845ED208C39C}" type="pres">
+      <dgm:prSet presAssocID="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{30787840-8AB1-49EE-9B27-FD1810E4D221}" type="pres">
       <dgm:prSet presAssocID="{93238285-541C-4476-A2E7-16E8A25CBA2F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" type="pres">
       <dgm:prSet presAssocID="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" presName="hierRoot2" presStyleCnt="0">
@@ -2769,10 +3751,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{110BDC08-8310-4888-AF74-DA8E66E83C7B}" type="pres">
       <dgm:prSet presAssocID="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7F4C330C-8D4A-4041-A83C-037B8631E559}" type="pres">
       <dgm:prSet presAssocID="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="7">
@@ -2781,22 +3777,57 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7F87C74F-0373-473E-A4F7-AA0E69B1208E}" type="pres">
       <dgm:prSet presAssocID="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F48E50CC-78EF-4AD0-AF8C-309F027D3C3C}" type="pres">
       <dgm:prSet presAssocID="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2243E20D-3CAF-446E-BD64-064D6B54EAA9}" type="pres">
       <dgm:prSet presAssocID="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C7164AFE-A6B3-4CFC-BB20-3F0B186B4246}" type="pres">
       <dgm:prSet presAssocID="{40C0A17C-EDE3-4426-9F58-7C3172C50FD7}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" type="pres">
       <dgm:prSet presAssocID="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" presName="hierRoot2" presStyleCnt="0">
@@ -2805,10 +3836,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EDAB496B-1423-4535-A1F1-3404F1B26D30}" type="pres">
       <dgm:prSet presAssocID="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DAD7DE40-9421-4CCA-BE7E-978D497C69EC}" type="pres">
       <dgm:prSet presAssocID="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="7">
@@ -2828,22 +3873,57 @@
     <dgm:pt modelId="{908D6E39-B077-4124-8AAE-E5744139478A}" type="pres">
       <dgm:prSet presAssocID="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{779AE720-0FFA-4118-BD6B-DB7F1E47758D}" type="pres">
       <dgm:prSet presAssocID="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A3F75BDF-51DC-48A6-B297-4BC75970A840}" type="pres">
       <dgm:prSet presAssocID="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0479A8A4-A03C-44BB-A500-C04379DAE051}" type="pres">
       <dgm:prSet presAssocID="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{09DB3675-1E62-41EC-B40A-27BA035793F6}" type="pres">
-      <dgm:prSet presAssocID="{9626711A-9381-4EBE-BEB0-24A0AFF3226A}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{9626711A-9381-4EBE-BEB0-24A0AFF3226A}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" type="pres">
       <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="hierRoot2" presStyleCnt="0">
@@ -2852,30 +3932,72 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{22FF0495-5DCC-4D93-B8F2-7A42BB31FA12}" type="pres">
       <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5573E54C-45A5-4522-88E2-0516A08DB9C4}" type="pres">
-      <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="4">
+      <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B6A4561E-55D3-4B49-AAD6-E28C6AF9B548}" type="pres">
-      <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="4"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1CE2AF5D-3449-49E9-8FA5-F6058846A3CD}" type="pres">
       <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1C6E6E63-DFBF-470B-8455-AFE20F65CAFB}" type="pres">
       <dgm:prSet presAssocID="{A72A8775-237F-49E8-B5E0-2DFBC499A871}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" type="pres">
       <dgm:prSet presAssocID="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" presName="hierRoot2" presStyleCnt="0">
@@ -2884,10 +4006,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C9EE3AE9-3C89-46DA-9092-CFEA8DB6A173}" type="pres">
       <dgm:prSet presAssocID="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{71CF1253-D2CD-4BB9-A63B-03A765A7D678}" type="pres">
       <dgm:prSet presAssocID="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="7">
@@ -2907,14 +4043,35 @@
     <dgm:pt modelId="{515500CB-34AB-4847-A30B-558B4B2FC1FD}" type="pres">
       <dgm:prSet presAssocID="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="7"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" type="pres">
       <dgm:prSet presAssocID="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4D1AA829-559E-47F4-800E-3D1A680E9C9C}" type="pres">
-      <dgm:prSet presAssocID="{7B46FBD3-652B-425F-9B12-D96E68A3D2A2}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{7B46FBD3-652B-425F-9B12-D96E68A3D2A2}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" type="pres">
       <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="hierRoot2" presStyleCnt="0">
@@ -2923,13 +4080,27 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6F3A5607-D1C2-4EA2-9EFD-5E133E146DC5}" type="pres">
       <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CC06F08F-1FC4-496E-8EAC-7F6E955C6B45}" type="pres">
-      <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="7">
+      <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2944,20 +4115,48 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E135BAD5-1A70-47B4-8321-8269DC9C72FE}" type="pres">
-      <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{44BBDC3F-D3FD-4B50-9C4E-26A904B40A90}" type="pres">
       <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6466ED65-0CA8-4F22-9E23-283DBA0BD04C}" type="pres">
       <dgm:prSet presAssocID="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{03F6B8CA-B9C1-477A-B72C-7E52FFB5F0FE}" type="pres">
-      <dgm:prSet presAssocID="{CC960E6E-C285-45FA-940C-B7C6C0EC9DC0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{CC960E6E-C285-45FA-940C-B7C6C0EC9DC0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" type="pres">
       <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="hierRoot2" presStyleCnt="0">
@@ -2966,253 +4165,327 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D0ADA621-AA17-432D-BA58-7EFC5B1B89CB}" type="pres">
       <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9A249E65-1DFE-4BF3-97F8-B187D1FA7B8C}" type="pres">
-      <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="7">
+      <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="9">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4A85FFCF-60E4-4D33-B03F-9BBE70043C7D}" type="pres">
-      <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="7"/>
-      <dgm:spPr/>
+      <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E0CC7E57-C17F-425C-A241-63CB13389A33}" type="pres">
       <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{859632AC-677C-4993-BF5F-D5321A70829A}" type="pres">
       <dgm:prSet presAssocID="{3B1EE728-4556-436B-977E-F448953CD4DB}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9F99457E-976A-4B85-8F6B-156AAD9A5CBA}" type="pres">
       <dgm:prSet presAssocID="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8B779C39-FEA8-4F1C-832F-2F9A32A94D21}" type="pres">
       <dgm:prSet presAssocID="{67F68FF6-4FAE-4601-918A-ABB200643558}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F6EC070B-7092-47C2-9589-9CB1919E325B}" type="pres">
       <dgm:prSet presAssocID="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{18B31179-597F-4350-A1CF-4EED599F74FA}" type="presOf" srcId="{67F68FF6-4FAE-4601-918A-ABB200643558}" destId="{5573E54C-45A5-4522-88E2-0516A08DB9C4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A2FAB088-4324-484F-A1EA-7C0AC2DE5676}" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" srcOrd="2" destOrd="0" parTransId="{E3D313B5-E6F3-4486-9869-2B53E90804CD}" sibTransId="{21015EEA-F7BC-43CE-AF5E-3C76AF38ECB8}"/>
-    <dgm:cxn modelId="{614C90B6-21B7-4F80-B0E1-15B0AC49D0B0}" type="presOf" srcId="{93238285-541C-4476-A2E7-16E8A25CBA2F}" destId="{30787840-8AB1-49EE-9B27-FD1810E4D221}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D961BDCD-FE14-4506-B5DB-63BF11AD139D}" type="presOf" srcId="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" destId="{DAD7DE40-9421-4CCA-BE7E-978D497C69EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F462F872-0E6E-478C-84CC-7457A17A7E2E}" type="presOf" srcId="{3B1EE728-4556-436B-977E-F448953CD4DB}" destId="{9A249E65-1DFE-4BF3-97F8-B187D1FA7B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{58A54C88-2B86-4E3C-A928-A992E14F989F}" type="presOf" srcId="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" destId="{CC06F08F-1FC4-496E-8EAC-7F6E955C6B45}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2FAB088-4324-484F-A1EA-7C0AC2DE5676}" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" srcOrd="1" destOrd="0" parTransId="{E3D313B5-E6F3-4486-9869-2B53E90804CD}" sibTransId="{21015EEA-F7BC-43CE-AF5E-3C76AF38ECB8}"/>
     <dgm:cxn modelId="{5FAFA530-02F2-4D2A-938C-70DCCB4AD6BA}" srcId="{70B007C8-DE3F-431E-9D8E-C87D84B7AF97}" destId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" srcOrd="0" destOrd="0" parTransId="{F450E760-F8A0-4A74-A9AB-E4D60CC2C3F2}" sibTransId="{5176958E-F6F0-450E-8C6C-C11CA8FC603E}"/>
-    <dgm:cxn modelId="{B775ED4D-C570-4841-8C04-4994ED1CD107}" type="presOf" srcId="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" destId="{2F6C6A87-31A5-45B7-AEF1-D7FA43CA1309}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{67685D87-33ED-4001-8F85-FDD012A6347C}" type="presOf" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{03877453-6CF3-4064-9FE5-8A6EC1F17229}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8F2EAEFA-C6E4-4B67-A169-871C04B2627C}" type="presOf" srcId="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" destId="{6D416773-EAF7-418B-B839-6E53F8F5695E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36752F6A-96F3-4B40-8BF2-EF0E9DCB46DE}" type="presOf" srcId="{323BF271-2DB2-44A7-A647-4183DBDF773C}" destId="{DE485A75-0288-4365-B104-3D508999408C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{77D6B469-E72D-4AB4-8ED9-F2F72A5E2757}" type="presOf" srcId="{7B46FBD3-652B-425F-9B12-D96E68A3D2A2}" destId="{4D1AA829-559E-47F4-800E-3D1A680E9C9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{EBD3553C-8734-43C2-808B-18A7FB08D7E4}" srcId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" destId="{3B1EE728-4556-436B-977E-F448953CD4DB}" srcOrd="1" destOrd="0" parTransId="{CC960E6E-C285-45FA-940C-B7C6C0EC9DC0}" sibTransId="{8E357AC9-3940-48BE-95A9-B774DB8F1F14}"/>
-    <dgm:cxn modelId="{89B9FCBC-0539-4AEA-9016-596D2F40C4B9}" type="presOf" srcId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" destId="{E4BEC828-51B0-48F3-96A5-0C96FE8C964A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F7A439FA-D1BE-488D-B2BF-A04706F7871D}" type="presOf" srcId="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" destId="{7F87C74F-0373-473E-A4F7-AA0E69B1208E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{25C279FB-2893-46D7-A39D-0748ECBB9558}" type="presOf" srcId="{7CD02305-D6C9-46E0-9140-4811866B76F5}" destId="{1B53A340-7278-4282-BCA7-34529876A276}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{06893244-1305-4516-A2E9-AC5BD0096894}" type="presOf" srcId="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" destId="{6DCD138F-E6B2-473C-BFD2-ED0A0A23BF29}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7D76AF80-8D33-4985-AD1E-6036C65E3156}" type="presOf" srcId="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" destId="{6D416773-EAF7-418B-B839-6E53F8F5695E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{998A233A-C266-4E33-B4EF-2F56958F9315}" srcId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" destId="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" srcOrd="0" destOrd="0" parTransId="{7B46FBD3-652B-425F-9B12-D96E68A3D2A2}" sibTransId="{C643EDD6-E21C-4297-B6AA-9865C084E2AF}"/>
-    <dgm:cxn modelId="{701A538D-D340-4FBA-A651-C485C971EEA9}" type="presOf" srcId="{3B1EE728-4556-436B-977E-F448953CD4DB}" destId="{9A249E65-1DFE-4BF3-97F8-B187D1FA7B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E9491227-141A-44A6-8F84-5BE3D92ADA45}" type="presOf" srcId="{A72A8775-237F-49E8-B5E0-2DFBC499A871}" destId="{1C6E6E63-DFBF-470B-8455-AFE20F65CAFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D4D2DC23-3DD7-4C74-98BA-B4D96A44BD90}" type="presOf" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{D0542FC8-3ABC-4CF5-9C7F-6715BE3069B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D389EE9E-57A2-41F0-AECF-D91FCC72322F}" type="presOf" srcId="{40C0A17C-EDE3-4426-9F58-7C3172C50FD7}" destId="{C7164AFE-A6B3-4CFC-BB20-3F0B186B4246}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{791B3E62-F8C3-498E-B8BD-2B0FACED0385}" srcId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" destId="{860201BF-8817-4A79-AC40-D1434A876435}" srcOrd="0" destOrd="0" parTransId="{A816D713-EC5F-4BF1-A72C-AE03F2A3E424}" sibTransId="{2320D745-BA1D-42BE-91FA-00DD0F4FEF4B}"/>
-    <dgm:cxn modelId="{3606D1EB-A855-4F3C-A752-1D1997A3AED8}" type="presOf" srcId="{D6BE1315-85AB-4B0E-8AA7-38E0B5B0D1FB}" destId="{DDE4A896-771F-4E5C-A399-D401100434B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3FD68708-CB95-4051-BDC3-0A2736CE18F9}" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{E96E2997-7213-41BF-8FE3-37C0E0160469}" srcOrd="2" destOrd="0" parTransId="{8F5A58CC-7EC0-4194-B8EA-BEF3DA58FA1F}" sibTransId="{1B4DFFDB-52B3-4753-AC5D-A66A37E53E5F}"/>
-    <dgm:cxn modelId="{CB09D8D2-321B-4044-A41C-0B313E17B221}" type="presOf" srcId="{E96E2997-7213-41BF-8FE3-37C0E0160469}" destId="{8B7DDB96-B2C0-44F2-81DE-A2F3F5026610}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FEBD50B1-8C31-48E7-8CE4-0AB8B478DB45}" type="presOf" srcId="{670AFC2F-B621-421A-94B2-288D45D95304}" destId="{6F664D7C-E1C7-4CE4-82F5-30BCAAB641D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{169A26E0-B1E9-4A3F-B7C2-8296BF0F5738}" type="presOf" srcId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" destId="{1E91E9E5-DF7C-4B24-8A18-8260EB1CCE47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{887AE356-32EA-49DB-A206-A6E8A04F91F0}" type="presOf" srcId="{A0056CD3-38B0-4C15-8DDA-90B4E02E89F4}" destId="{B69D99E1-C1ED-4423-BA45-9E4D685384FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5A659C70-C842-4D04-9FCA-7A2231826BDC}" type="presOf" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{4A62C554-2B4B-4003-8894-3B67C6F45813}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B0E87F4A-7124-47A1-857A-C647E1C1869C}" type="presOf" srcId="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" destId="{5D2B7F2B-0B29-4488-A6E5-2EFA970D6B85}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E057DB4D-1274-4B83-B4B6-B9739AEFC66E}" type="presOf" srcId="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" destId="{C0090BBE-342D-42F8-9C93-6328191002E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9392A49F-641C-4D65-84EA-47B282E41DB0}" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{67F68FF6-4FAE-4601-918A-ABB200643558}" srcOrd="3" destOrd="0" parTransId="{9626711A-9381-4EBE-BEB0-24A0AFF3226A}" sibTransId="{3295A9D1-1A75-4177-B41B-2116834D1B8C}"/>
-    <dgm:cxn modelId="{D831661F-8BDF-48B3-A735-C114D3C0C533}" type="presOf" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{CD3D9B7B-32AF-48E7-A6B5-153335DA58ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F637C23-27A8-4371-BE32-EB0D04F8E7B1}" type="presOf" srcId="{16554541-DF53-4091-8BE1-063E7A023751}" destId="{6B617CEF-C370-4844-9DDA-BC1FD2DDA9A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7CEF721D-A066-411C-B232-6DF806ACA2C0}" type="presOf" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{4A62C554-2B4B-4003-8894-3B67C6F45813}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C4AD7057-F3AC-458B-8BCB-2232FB5FDE43}" type="presOf" srcId="{A72A8775-237F-49E8-B5E0-2DFBC499A871}" destId="{1C6E6E63-DFBF-470B-8455-AFE20F65CAFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E05ACFEF-6C7E-47A0-8AB0-F98962055206}" type="presOf" srcId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" destId="{515500CB-34AB-4847-A30B-558B4B2FC1FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{18D7CCC9-9D4B-4722-9FD8-3560FC535CE6}" type="presOf" srcId="{9626711A-9381-4EBE-BEB0-24A0AFF3226A}" destId="{09DB3675-1E62-41EC-B40A-27BA035793F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D74A5A22-B872-4CE4-84FC-EFEB191E0263}" type="presOf" srcId="{93238285-541C-4476-A2E7-16E8A25CBA2F}" destId="{30787840-8AB1-49EE-9B27-FD1810E4D221}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D162CD5-9C75-4125-94D6-78E41F53D25A}" type="presOf" srcId="{A0056CD3-38B0-4C15-8DDA-90B4E02E89F4}" destId="{B69D99E1-C1ED-4423-BA45-9E4D685384FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E405E626-C823-477A-8F73-BE470E136DC3}" type="presOf" srcId="{E3D313B5-E6F3-4486-9869-2B53E90804CD}" destId="{D87D00D3-4D8F-4CCF-9217-C89B63A31973}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{30153439-8A8E-4B19-BD52-86DC91F44508}" type="presOf" srcId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" destId="{4548DABE-FB19-4A56-98C5-7B3AE8CD1690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FC00C061-73A7-4045-B216-255A1688B563}" type="presOf" srcId="{E96E2997-7213-41BF-8FE3-37C0E0160469}" destId="{E16BD780-C81B-4509-BCA8-98F45A48692B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DB1CC03D-5B14-4F0B-AC65-8DE93088AC81}" type="presOf" srcId="{67F68FF6-4FAE-4601-918A-ABB200643558}" destId="{B6A4561E-55D3-4B49-AAD6-E28C6AF9B548}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8665D5E3-A318-4DC6-9BE5-38D4EEF1BECC}" type="presOf" srcId="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" destId="{5D2B7F2B-0B29-4488-A6E5-2EFA970D6B85}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05285FBA-9982-4514-A2B5-537CF23F66E5}" type="presOf" srcId="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" destId="{7F4C330C-8D4A-4041-A83C-037B8631E559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4FBADE52-2AE0-4653-99AD-0CAE28382412}" type="presOf" srcId="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" destId="{51A51A01-4F2D-48A0-A9DA-4C18F2871E02}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9392A49F-641C-4D65-84EA-47B282E41DB0}" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{67F68FF6-4FAE-4601-918A-ABB200643558}" srcOrd="2" destOrd="0" parTransId="{9626711A-9381-4EBE-BEB0-24A0AFF3226A}" sibTransId="{3295A9D1-1A75-4177-B41B-2116834D1B8C}"/>
+    <dgm:cxn modelId="{38825AF5-3FBB-412C-A01E-1DC681560E5C}" type="presOf" srcId="{16554541-DF53-4091-8BE1-063E7A023751}" destId="{6B617CEF-C370-4844-9DDA-BC1FD2DDA9A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F99A0433-EAD4-4439-9170-535B5A042C62}" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" srcOrd="1" destOrd="0" parTransId="{ACCCC2FA-9961-4D37-BD90-CFA524CD0968}" sibTransId="{40A04844-0D58-47C8-8DB5-9E0C4D69BEED}"/>
-    <dgm:cxn modelId="{E6F3BD3D-627E-49B8-826A-3C26A09FC4D2}" type="presOf" srcId="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" destId="{13642BD0-DE59-48D2-BA02-ACD69C81E007}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6C27F2C2-902A-41DB-AE3F-97A14780DA90}" srcId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" destId="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" srcOrd="1" destOrd="0" parTransId="{A0056CD3-38B0-4C15-8DDA-90B4E02E89F4}" sibTransId="{F93485BF-0AB9-4A0D-B22E-D40D407B6F25}"/>
-    <dgm:cxn modelId="{AF1DB9F0-A825-48B1-B522-C93A9514C22F}" type="presOf" srcId="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" destId="{9716CAD8-3C3E-4522-889B-E080BEBC9DD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5F850712-31D4-4324-8744-7F9C1B250AD9}" type="presOf" srcId="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" destId="{D5E77C82-62E9-47E2-9254-1B7391F2B56B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9A83E9EA-8AF0-4D5C-BD5A-430D4D0DF7FE}" type="presOf" srcId="{A816D713-EC5F-4BF1-A72C-AE03F2A3E424}" destId="{68D1782F-7F29-41C1-89E5-8E0F4B9D9A23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2694FF41-3425-4AC5-B303-F4A203728CDF}" type="presOf" srcId="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" destId="{908D6E39-B077-4124-8AAE-E5744139478A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{577DDDE6-58F5-4839-A2DD-9D4BE054A00B}" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" srcOrd="1" destOrd="0" parTransId="{E22134EE-0567-4694-8FAF-F306C6140E90}" sibTransId="{661839AC-C193-4210-9706-8B8789CC5870}"/>
-    <dgm:cxn modelId="{67DC8F6A-0576-48C1-BBF1-C6DECB0F9286}" type="presOf" srcId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" destId="{ED0B238B-E25D-49DC-BDF0-280353404EDA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6033FA4B-FAB9-4373-9073-D418860C3192}" type="presOf" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{8EACB4EF-31B8-4AF4-8887-94F99A4029D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9D8484E6-41B8-419D-9E06-6562FD4F500E}" type="presOf" srcId="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" destId="{D5E77C82-62E9-47E2-9254-1B7391F2B56B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{15A4B395-74EB-4CA0-B9FA-0D0044B24F93}" type="presOf" srcId="{C913DA36-E2AD-47C8-8D70-003A11F74F03}" destId="{877DCC39-D30C-449B-AA96-BFABDAEBC168}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A458D832-1983-4D67-AF52-9EB570C11BDD}" type="presOf" srcId="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" destId="{5D2E00FC-F503-4E70-94CD-26E55B262F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B3AB8B96-1219-4524-A374-56645B939858}" type="presOf" srcId="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" destId="{D6997898-92B4-4B2E-91CB-3F028AC20ED4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{577DDDE6-58F5-4839-A2DD-9D4BE054A00B}" srcId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" destId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" srcOrd="2" destOrd="0" parTransId="{E22134EE-0567-4694-8FAF-F306C6140E90}" sibTransId="{661839AC-C193-4210-9706-8B8789CC5870}"/>
+    <dgm:cxn modelId="{E465707A-0EE2-4FA6-AB9C-9762E1D3041E}" type="presOf" srcId="{7CD02305-D6C9-46E0-9140-4811866B76F5}" destId="{1B53A340-7278-4282-BCA7-34529876A276}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{21EAB9AC-67D1-47E4-9F09-F06D0D8F1DBF}" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" srcOrd="0" destOrd="0" parTransId="{7CD02305-D6C9-46E0-9140-4811866B76F5}" sibTransId="{3955B1C4-A91F-41F6-AA38-C7DDC16BA76E}"/>
-    <dgm:cxn modelId="{18C1E6C0-D0E0-464C-8F1C-357A9850747C}" type="presOf" srcId="{323BF271-2DB2-44A7-A647-4183DBDF773C}" destId="{DE485A75-0288-4365-B104-3D508999408C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{09CE5180-EC8F-4198-9F7C-31014E35F61C}" type="presOf" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{D0542FC8-3ABC-4CF5-9C7F-6715BE3069B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{530F4196-8A35-4A8D-978C-EEC8EC25A34A}" type="presOf" srcId="{40C0A17C-EDE3-4426-9F58-7C3172C50FD7}" destId="{C7164AFE-A6B3-4CFC-BB20-3F0B186B4246}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{28D73DAA-A093-47D8-9708-9A844C17EB3B}" type="presOf" srcId="{ACCCC2FA-9961-4D37-BD90-CFA524CD0968}" destId="{73D5EA39-36D9-433B-8FD9-1AA78478AA13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B6B98B0-151E-4518-961B-95B35C458668}" type="presOf" srcId="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" destId="{C0090BBE-342D-42F8-9C93-6328191002E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{11ED1933-9B76-4783-AAFD-69D9C7EA35CA}" type="presOf" srcId="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" destId="{E135BAD5-1A70-47B4-8321-8269DC9C72FE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{113B8405-CF6E-4278-985C-3312999F0412}" type="presOf" srcId="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" destId="{7F87C74F-0373-473E-A4F7-AA0E69B1208E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6FE1D69A-A708-4685-A7C6-05C616C04812}" type="presOf" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{CD3D9B7B-32AF-48E7-A6B5-153335DA58ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{55526E9D-5184-4523-BD5F-E78DD1C1B8EA}" srcId="{67F68FF6-4FAE-4601-918A-ABB200643558}" destId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" srcOrd="0" destOrd="0" parTransId="{A72A8775-237F-49E8-B5E0-2DFBC499A871}" sibTransId="{8C827FC7-2096-48B2-8D15-43ECBF328269}"/>
-    <dgm:cxn modelId="{FA61BF7F-683D-44ED-8180-E15B1D47FBEF}" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" srcOrd="1" destOrd="0" parTransId="{40C0A17C-EDE3-4426-9F58-7C3172C50FD7}" sibTransId="{5FE7F9F8-8937-44C3-BA87-7689BA474009}"/>
-    <dgm:cxn modelId="{5EC7A8D6-7880-42FB-9425-4260D96476E4}" type="presOf" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{183A89F2-CE02-4D15-8AA7-82B94A25F0E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2860CB78-C2D1-4388-B22A-06E43D5E2207}" type="presOf" srcId="{3B1EE728-4556-436B-977E-F448953CD4DB}" destId="{4A85FFCF-60E4-4D33-B03F-9BBE70043C7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5CA6BDB1-7C31-4D8C-9F6D-F2615B7946B0}" type="presOf" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{183A89F2-CE02-4D15-8AA7-82B94A25F0E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05C0B7C8-3593-40E0-A26C-711D47483F4A}" type="presOf" srcId="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" destId="{B099BEEC-34B7-454A-B1F0-EDE86D1E7D3B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8E9CFFCE-1C8F-4269-8504-B16E9F14BAAF}" type="presOf" srcId="{670AFC2F-B621-421A-94B2-288D45D95304}" destId="{F92F3B4E-7767-4FCC-AF43-87EC5FE9B7B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7A5AF584-57F6-4D1F-8BA4-5709DDD30C1A}" type="presOf" srcId="{E22134EE-0567-4694-8FAF-F306C6140E90}" destId="{E6866069-E709-4D14-AC64-2E24210369BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA61BF7F-683D-44ED-8180-E15B1D47FBEF}" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" srcOrd="2" destOrd="0" parTransId="{40C0A17C-EDE3-4426-9F58-7C3172C50FD7}" sibTransId="{5FE7F9F8-8937-44C3-BA87-7689BA474009}"/>
+    <dgm:cxn modelId="{761BEDA0-9F71-40ED-8F52-5F853FE20C1B}" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" srcOrd="0" destOrd="0" parTransId="{32528C57-2EA0-43BD-812B-E79FDB706E81}" sibTransId="{B691376B-6EB0-449A-A6ED-9F1F9794DE07}"/>
     <dgm:cxn modelId="{7750A48B-6D31-408E-8D8B-A0B19C23005A}" srcId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" destId="{E91ADB54-D680-42CE-92C3-E885CDFBBF9B}" srcOrd="0" destOrd="0" parTransId="{16554541-DF53-4091-8BE1-063E7A023751}" sibTransId="{6EE4ABF4-D96F-4F59-BB66-60BDB052B75B}"/>
-    <dgm:cxn modelId="{DEB7CF04-526B-4529-8F04-E5180D0B08DB}" type="presOf" srcId="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" destId="{B099BEEC-34B7-454A-B1F0-EDE86D1E7D3B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D2BA8EEB-4FEA-42C4-A618-A95482B7C09A}" type="presOf" srcId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" destId="{4548DABE-FB19-4A56-98C5-7B3AE8CD1690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CF30A5A2-87D1-459B-B31A-08B546199ED4}" type="presOf" srcId="{67F68FF6-4FAE-4601-918A-ABB200643558}" destId="{B6A4561E-55D3-4B49-AAD6-E28C6AF9B548}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4DD524F2-7D25-487A-9B7F-DC62E0F7A1F6}" type="presOf" srcId="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" destId="{DAD7DE40-9421-4CCA-BE7E-978D497C69EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E8D4550E-64A0-4078-9B0D-D034865DC033}" type="presOf" srcId="{670AFC2F-B621-421A-94B2-288D45D95304}" destId="{F92F3B4E-7767-4FCC-AF43-87EC5FE9B7B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8AD3ABA7-B1B4-4A56-97EB-723B240EFE42}" type="presOf" srcId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" destId="{71CF1253-D2CD-4BB9-A63B-03A765A7D678}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A5194370-4170-4E0B-BFFE-CF5225AB054D}" type="presOf" srcId="{9BD7F358-E0D1-483F-9C41-FE513A75D3D6}" destId="{908D6E39-B077-4124-8AAE-E5744139478A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F46E559-C42D-476B-BEDD-A3D8D35CDFAC}" type="presOf" srcId="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" destId="{6DCD138F-E6B2-473C-BFD2-ED0A0A23BF29}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{667CCD14-4F5F-4D6A-89F9-4E91AF89D544}" type="presOf" srcId="{CC960E6E-C285-45FA-940C-B7C6C0EC9DC0}" destId="{03F6B8CA-B9C1-477A-B72C-7E52FFB5F0FE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CA354991-B09B-40D1-B146-B7E55BE547FC}" type="presOf" srcId="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" destId="{13642BD0-DE59-48D2-BA02-ACD69C81E007}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5995507C-6837-4F76-8CF7-A171643F04BC}" type="presOf" srcId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" destId="{E4BEC828-51B0-48F3-96A5-0C96FE8C964A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{11BBBC18-BA70-4D58-9391-01103FD08735}" srcId="{48A2685D-E5CC-40A9-BC25-48FA81B8F159}" destId="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" srcOrd="0" destOrd="0" parTransId="{323BF271-2DB2-44A7-A647-4183DBDF773C}" sibTransId="{E2DE8CF4-F637-47D5-A884-E829A1F6C5B2}"/>
-    <dgm:cxn modelId="{4166EA1B-A7A9-4134-8C70-2FDDEB849D52}" type="presOf" srcId="{E96E2997-7213-41BF-8FE3-37C0E0160469}" destId="{E16BD780-C81B-4509-BCA8-98F45A48692B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C45C9076-3234-4C8C-93FE-0135E3256878}" type="presOf" srcId="{00CB54D2-223E-47F9-885C-3B077E92BD4C}" destId="{10380F16-95A7-4D82-A30B-057DDDC37DE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CB190BA9-1DA7-4404-899D-CDFDB188F3F8}" type="presOf" srcId="{670AFC2F-B621-421A-94B2-288D45D95304}" destId="{6F664D7C-E1C7-4CE4-82F5-30BCAAB641D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E815C614-9430-494F-9124-C8F67277A3CD}" type="presOf" srcId="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" destId="{9716CAD8-3C3E-4522-889B-E080BEBC9DD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3E56EE16-9808-4C01-9A4A-4553F5D80293}" type="presOf" srcId="{70B007C8-DE3F-431E-9D8E-C87D84B7AF97}" destId="{9F84C3BF-6C91-47CE-8C69-25B5AF58816E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3098DCD1-33F5-443F-9801-AD05789DC6CD}" type="presOf" srcId="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" destId="{CC06F08F-1FC4-496E-8EAC-7F6E955C6B45}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A7FB5892-910D-4D3A-BA8B-2AB2D41EAAC5}" type="presOf" srcId="{CC960E6E-C285-45FA-940C-B7C6C0EC9DC0}" destId="{03F6B8CA-B9C1-477A-B72C-7E52FFB5F0FE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ED4A032E-7899-458F-A675-C4EA76DF2DE0}" type="presOf" srcId="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" destId="{51A51A01-4F2D-48A0-A9DA-4C18F2871E02}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5DDA7B7D-AD26-4141-9FE5-8BFD2D3142EB}" type="presOf" srcId="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" destId="{EED3D681-F603-472B-AB9E-234C9A9F28E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7E342A52-C54F-4A31-AE58-1A06581FB408}" type="presOf" srcId="{8361C29B-E226-48B5-B2CA-D4B02E8F88E4}" destId="{5D2E00FC-F503-4E70-94CD-26E55B262F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{80E4ECA8-7EA3-47CD-81B8-4D15DB48CDB1}" type="presOf" srcId="{ACCCC2FA-9961-4D37-BD90-CFA524CD0968}" destId="{73D5EA39-36D9-433B-8FD9-1AA78478AA13}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F3059F3E-EEF4-4D6E-862F-DD07AF1B703A}" type="presOf" srcId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" destId="{515500CB-34AB-4847-A30B-558B4B2FC1FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CAFD22E7-FFDD-446F-B9C1-30708E9A5039}" type="presOf" srcId="{E22134EE-0567-4694-8FAF-F306C6140E90}" destId="{E6866069-E709-4D14-AC64-2E24210369BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1EDEF66F-F9C2-4A08-AC05-2C933D317541}" type="presOf" srcId="{8F5A58CC-7EC0-4194-B8EA-BEF3DA58FA1F}" destId="{F49835A5-5DB8-42C9-A094-FE65EBE13F33}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{508B2A19-E8A7-4737-A46A-4C7EFC7D1939}" type="presOf" srcId="{00CB54D2-223E-47F9-885C-3B077E92BD4C}" destId="{10380F16-95A7-4D82-A30B-057DDDC37DE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DF4C368D-A10C-4F84-841C-EF82B0B71200}" type="presOf" srcId="{E96E2997-7213-41BF-8FE3-37C0E0160469}" destId="{8B7DDB96-B2C0-44F2-81DE-A2F3F5026610}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F9576F08-43A7-4C7F-B1F5-09044A0954F5}" type="presOf" srcId="{67F68FF6-4FAE-4601-918A-ABB200643558}" destId="{5573E54C-45A5-4522-88E2-0516A08DB9C4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AFC70C39-D4FE-4852-9257-2CD033B1DB01}" type="presOf" srcId="{9AA4CC46-815F-48BB-96B4-259B54ADA210}" destId="{7BE414DC-6F82-4B0D-BA9C-0E6D713746EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BE2C41AF-E30B-4B73-9782-F979E45B7E55}" type="presOf" srcId="{F05C434F-D1E9-4B78-ABD3-F035CEA6B37C}" destId="{71CF1253-D2CD-4BB9-A63B-03A765A7D678}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{162164FA-E531-4A97-9AC4-2BC580529C1F}" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" srcOrd="3" destOrd="0" parTransId="{00CB54D2-223E-47F9-885C-3B077E92BD4C}" sibTransId="{9E11B7F6-88CA-43FC-B87E-7E42D8B2B5E6}"/>
-    <dgm:cxn modelId="{1DD5EACF-ED41-4383-8E46-D14E0CE35C3D}" type="presOf" srcId="{48D12DCB-F5E8-437E-BB26-F58CB54F556E}" destId="{E135BAD5-1A70-47B4-8321-8269DC9C72FE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7A2C9BAD-6DCC-4CE1-A2D6-9761908CC310}" type="presOf" srcId="{C913DA36-E2AD-47C8-8D70-003A11F74F03}" destId="{877DCC39-D30C-449B-AA96-BFABDAEBC168}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F562020-4BD6-430D-A76A-D4435EF5B8E8}" type="presOf" srcId="{9626711A-9381-4EBE-BEB0-24A0AFF3226A}" destId="{09DB3675-1E62-41EC-B40A-27BA035793F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{86B8A2CE-D21E-48F9-9E02-0E72FB48516E}" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" srcOrd="0" destOrd="0" parTransId="{93238285-541C-4476-A2E7-16E8A25CBA2F}" sibTransId="{CB239A7B-8A7D-4427-9A1F-7209A8C72142}"/>
-    <dgm:cxn modelId="{76D6D947-FC66-435E-95D4-E16DB106B0E1}" type="presOf" srcId="{8F5A58CC-7EC0-4194-B8EA-BEF3DA58FA1F}" destId="{F49835A5-5DB8-42C9-A094-FE65EBE13F33}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0F1E3F9D-7741-4975-8CEC-F8E92706B985}" type="presOf" srcId="{3B1EE728-4556-436B-977E-F448953CD4DB}" destId="{4A85FFCF-60E4-4D33-B03F-9BBE70043C7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{490AC1CB-42FA-40C9-A95A-B411BF84EE5A}" type="presOf" srcId="{F0AE7BD9-3637-4900-B467-BA32A11E1752}" destId="{8EACB4EF-31B8-4AF4-8887-94F99A4029D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C57A9DC6-0055-41CB-B6E0-C75105365B7B}" type="presOf" srcId="{A816D713-EC5F-4BF1-A72C-AE03F2A3E424}" destId="{68D1782F-7F29-41C1-89E5-8E0F4B9D9A23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{86B8A2CE-D21E-48F9-9E02-0E72FB48516E}" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" srcOrd="1" destOrd="0" parTransId="{93238285-541C-4476-A2E7-16E8A25CBA2F}" sibTransId="{CB239A7B-8A7D-4427-9A1F-7209A8C72142}"/>
     <dgm:cxn modelId="{81B4C15C-E926-448F-BCF5-883298F65016}" srcId="{860201BF-8817-4A79-AC40-D1434A876435}" destId="{CCA3F0B1-3A5D-499A-A6BD-47A29AFC2D51}" srcOrd="0" destOrd="0" parTransId="{C913DA36-E2AD-47C8-8D70-003A11F74F03}" sibTransId="{22282AFA-1451-4A8C-B205-178CF6184CC8}"/>
-    <dgm:cxn modelId="{965FB7C3-D5FC-4B67-AF60-D8E1B85CEE8D}" type="presOf" srcId="{E3D313B5-E6F3-4486-9869-2B53E90804CD}" destId="{D87D00D3-4D8F-4CCF-9217-C89B63A31973}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{64E803C2-FA36-432C-BFFC-8CB29248E49B}" type="presOf" srcId="{ED6381AE-EA79-4D35-AE6C-A790C055E2D2}" destId="{7F4C330C-8D4A-4041-A83C-037B8631E559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C70D60F-95CD-43A7-878D-ED93C045F061}" type="presOf" srcId="{32528C57-2EA0-43BD-812B-E79FDB706E81}" destId="{BE3D61E7-4F44-4C4B-8417-C0E21524D435}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6236EFE9-E9BC-4A1C-B0AF-54A6D9F457FF}" srcId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" destId="{670AFC2F-B621-421A-94B2-288D45D95304}" srcOrd="1" destOrd="0" parTransId="{D6BE1315-85AB-4B0E-8AA7-38E0B5B0D1FB}" sibTransId="{2A8582C8-089F-484B-BA32-AD8FFBD3E0DC}"/>
-    <dgm:cxn modelId="{C0E61375-7716-4221-8C7D-F9206C6504C2}" type="presOf" srcId="{7B46FBD3-652B-425F-9B12-D96E68A3D2A2}" destId="{4D1AA829-559E-47F4-800E-3D1A680E9C9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EEDB9789-EC27-4D9C-8854-C8AD2CA04881}" type="presParOf" srcId="{9F84C3BF-6C91-47CE-8C69-25B5AF58816E}" destId="{143A880F-E69E-4E07-8256-7519A2099B17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{82CB85EE-C0B3-40F9-94E4-0174ED2B5860}" type="presParOf" srcId="{143A880F-E69E-4E07-8256-7519A2099B17}" destId="{625B2143-7AD3-4C0F-8D33-AE9B34C4AD72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5A707C44-2755-4F3F-B6DA-A358B4192C62}" type="presParOf" srcId="{625B2143-7AD3-4C0F-8D33-AE9B34C4AD72}" destId="{D0542FC8-3ABC-4CF5-9C7F-6715BE3069B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FA88480B-270E-4930-8F20-0D9AAA2E9EB8}" type="presParOf" srcId="{625B2143-7AD3-4C0F-8D33-AE9B34C4AD72}" destId="{8EACB4EF-31B8-4AF4-8887-94F99A4029D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DA7A747F-B910-423C-A654-78F56FDEED50}" type="presParOf" srcId="{143A880F-E69E-4E07-8256-7519A2099B17}" destId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B7E37E1B-5F1C-4370-81CA-43A5BEB71411}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{1B53A340-7278-4282-BCA7-34529876A276}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B0E50488-0D66-4209-977C-D4A5091BCEE6}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CE4889AD-4B7C-4404-B6A8-CCE2A21D13B2}" type="presParOf" srcId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" destId="{3799C5FD-41DD-43A6-A9EC-608E24B35486}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F9292A0F-E5F5-4038-9B72-50A879708B8A}" type="presParOf" srcId="{3799C5FD-41DD-43A6-A9EC-608E24B35486}" destId="{4548DABE-FB19-4A56-98C5-7B3AE8CD1690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0344C10C-F464-44B4-9BFC-822C1FB017AA}" type="presParOf" srcId="{3799C5FD-41DD-43A6-A9EC-608E24B35486}" destId="{1E91E9E5-DF7C-4B24-8A18-8260EB1CCE47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2DA9C38B-9393-47F1-A42F-C18949B321E6}" type="presParOf" srcId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" destId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6EC6A188-987E-4CB9-9098-AFB227F3C04B}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{68D1782F-7F29-41C1-89E5-8E0F4B9D9A23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FEA5A63B-808E-40F1-BA3C-21FEE4770570}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B18E7E3A-3E7D-4CB5-8991-59517C2A1DFB}" type="presParOf" srcId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" destId="{C53D5A74-C19A-49CE-B4AD-1F0B9008F787}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F148DE98-9011-4A11-81B8-496310BA8493}" type="presParOf" srcId="{C53D5A74-C19A-49CE-B4AD-1F0B9008F787}" destId="{183A89F2-CE02-4D15-8AA7-82B94A25F0E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EF7E9C2A-5274-47CB-A4DD-9DDAC8135F9E}" type="presParOf" srcId="{C53D5A74-C19A-49CE-B4AD-1F0B9008F787}" destId="{4A62C554-2B4B-4003-8894-3B67C6F45813}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0F649051-0714-492F-9AA2-B8670724D4E0}" type="presParOf" srcId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" destId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4618D213-8227-4404-9E98-A68AA73596F7}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{877DCC39-D30C-449B-AA96-BFABDAEBC168}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B118DE7A-2184-4FAC-ADE9-9A9F3076DAF2}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6BFF6F2F-95CA-442C-A46E-15F88A127167}" type="presParOf" srcId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" destId="{99A135B2-5F74-4CCC-B18B-BD03E02F16FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CDD52C28-AB66-4E54-9934-AFDAB742B2F0}" type="presParOf" srcId="{99A135B2-5F74-4CCC-B18B-BD03E02F16FD}" destId="{13642BD0-DE59-48D2-BA02-ACD69C81E007}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{36C21F6D-E977-44B2-8362-8800A331A115}" type="presParOf" srcId="{99A135B2-5F74-4CCC-B18B-BD03E02F16FD}" destId="{6D416773-EAF7-418B-B839-6E53F8F5695E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F6A7626B-711F-4BC5-8C0C-A61F859E5345}" type="presParOf" srcId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" destId="{4F569DC4-DFA0-44F1-920D-263FC92D0D7C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C4878220-E8D3-4A82-B729-47FE69B2308B}" type="presParOf" srcId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" destId="{F5080FD1-193D-4BC5-97DB-AB1A46D2BD33}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{574A66AD-AF6D-4FE0-9110-EA58FAC90F14}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{73D5EA39-36D9-433B-8FD9-1AA78478AA13}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{92A3F786-EAFC-4786-BDC0-262DD9E89D35}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D57FE019-0526-4792-9EF6-43003C0192CB}" type="presParOf" srcId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" destId="{527FF6CF-2C8C-4155-94E1-A96D7E8B3B3F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8CF3201E-E7F6-4575-A39D-86972439AF9C}" type="presParOf" srcId="{527FF6CF-2C8C-4155-94E1-A96D7E8B3B3F}" destId="{2F6C6A87-31A5-45B7-AEF1-D7FA43CA1309}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5BCBB4D6-69BB-4F6A-86E1-12E70990EA9F}" type="presParOf" srcId="{527FF6CF-2C8C-4155-94E1-A96D7E8B3B3F}" destId="{51A51A01-4F2D-48A0-A9DA-4C18F2871E02}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{06A44730-5573-4CF8-BB6E-6F1D53772ED9}" type="presParOf" srcId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" destId="{E8282368-1CC7-49BE-ACB1-0A56C3936D30}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7F1AEDFE-45BA-47C2-BC82-9D6FC6FB61E5}" type="presParOf" srcId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" destId="{1CF0F9C5-51F3-43E2-9721-C2A4B957A379}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{073FD33C-9305-4FD5-8A98-CF27E68FB587}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{F49835A5-5DB8-42C9-A094-FE65EBE13F33}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{67BB09A0-91D6-4F11-A7C3-A036ECE0083E}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1B16F092-FBCB-44C7-BB0B-02765171D31E}" type="presParOf" srcId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" destId="{F54FDDEF-225F-4EC7-9297-8EE703DE46B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{72B0776D-0FE2-4057-A996-78E698D80B89}" type="presParOf" srcId="{F54FDDEF-225F-4EC7-9297-8EE703DE46B6}" destId="{E16BD780-C81B-4509-BCA8-98F45A48692B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{31281ED2-3628-4D4A-9311-5359268BD4B8}" type="presParOf" srcId="{F54FDDEF-225F-4EC7-9297-8EE703DE46B6}" destId="{8B7DDB96-B2C0-44F2-81DE-A2F3F5026610}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9FC95987-BF96-418A-A15F-EB7540F2B136}" type="presParOf" srcId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" destId="{E2970342-88BF-4C61-BBE1-5C2153020678}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C4DEC3C1-696E-4493-AE19-078B8751F759}" type="presParOf" srcId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" destId="{37923B0A-F47E-47F2-AED1-1C0F7F2AD0EE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8A81D184-CEDD-4EB5-96FE-E1DCC3B74775}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{10380F16-95A7-4D82-A30B-057DDDC37DE5}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C3C5548E-4312-48EF-9210-B14ABBA91A5C}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{A62404CF-F252-40A4-8801-B880CF46C103}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{486B1CC9-CC85-4B9A-A80C-AEF9830677B1}" type="presParOf" srcId="{A62404CF-F252-40A4-8801-B880CF46C103}" destId="{E420215C-99FC-4950-9D76-9BDD8174662F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C80C87A6-EEBF-4198-8B34-B2A57FF6BF43}" type="presParOf" srcId="{E420215C-99FC-4950-9D76-9BDD8174662F}" destId="{9716CAD8-3C3E-4522-889B-E080BEBC9DD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{520B5B4B-D033-44A3-BB83-E081359B5A77}" type="presParOf" srcId="{E420215C-99FC-4950-9D76-9BDD8174662F}" destId="{EED3D681-F603-472B-AB9E-234C9A9F28E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5649ED4A-3AAE-4313-9A68-1B5414F32A00}" type="presParOf" srcId="{A62404CF-F252-40A4-8801-B880CF46C103}" destId="{8C8D7550-27FB-40D8-9506-50EFF2B881D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EFE6F175-67CB-4E3F-B588-68FEAAC471EB}" type="presParOf" srcId="{A62404CF-F252-40A4-8801-B880CF46C103}" destId="{80A03204-7117-497C-BC0A-22AAB8C37810}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{743A5DA9-F903-4649-83C0-701537585F43}" type="presParOf" srcId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" destId="{EBAFEF32-C607-4647-A4C6-1A8E5FD48893}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DA4C1CC3-3E4C-40BD-8A5C-C909ECC756B3}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{B69D99E1-C1ED-4423-BA45-9E4D685384FB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{72C18CC7-09E1-4376-91F9-78F032E2449D}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D7F439E1-50CD-489C-BF8B-A017F36A548F}" type="presParOf" srcId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" destId="{9FEA722F-DA26-4E41-9EDE-F154062658D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{67507B92-6E6E-456C-BD30-DD75F928B947}" type="presParOf" srcId="{9FEA722F-DA26-4E41-9EDE-F154062658D7}" destId="{5D2B7F2B-0B29-4488-A6E5-2EFA970D6B85}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B99F1EC3-5229-4C9D-9C8B-BEAC039293A7}" type="presParOf" srcId="{9FEA722F-DA26-4E41-9EDE-F154062658D7}" destId="{B099BEEC-34B7-454A-B1F0-EDE86D1E7D3B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{97F76810-2099-4638-B549-0CC4D8A8F845}" type="presParOf" srcId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" destId="{469CE801-92CF-4153-A4C0-565680798D90}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9E98DB04-C40A-4DBF-85DF-2584E68D7B88}" type="presParOf" srcId="{469CE801-92CF-4153-A4C0-565680798D90}" destId="{DE485A75-0288-4365-B104-3D508999408C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{21AC108B-28CB-472A-91DD-E559B05C4CEA}" type="presParOf" srcId="{469CE801-92CF-4153-A4C0-565680798D90}" destId="{200DC69D-505F-4C55-A074-DE011337A3E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B175FE41-AFFD-48EB-A162-E1303CD4E31B}" type="presParOf" srcId="{200DC69D-505F-4C55-A074-DE011337A3E3}" destId="{5E4EE6A0-F4B4-4145-BB49-65D06B37DCE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{664125B8-415E-4C49-B996-42378EC7A66F}" type="presParOf" srcId="{5E4EE6A0-F4B4-4145-BB49-65D06B37DCE3}" destId="{5D2E00FC-F503-4E70-94CD-26E55B262F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B88954D9-4700-4BE8-9A93-49677A44C624}" type="presParOf" srcId="{5E4EE6A0-F4B4-4145-BB49-65D06B37DCE3}" destId="{6DCD138F-E6B2-473C-BFD2-ED0A0A23BF29}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D161B951-DCEA-4CA7-9006-8053B92AED48}" type="presParOf" srcId="{200DC69D-505F-4C55-A074-DE011337A3E3}" destId="{8E17C02E-76B0-47B1-A5C0-F0A4CF0301C2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9622922E-AA26-4218-8487-DAE8D6E30F09}" type="presParOf" srcId="{200DC69D-505F-4C55-A074-DE011337A3E3}" destId="{8047F633-92CD-49E4-8C8C-0F57E2FD63E0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3E8894F4-CC4F-4AD1-8D17-DC5C8A1C2151}" type="presParOf" srcId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" destId="{7300F207-78E3-4373-9433-2446A395F1F8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C2292830-E832-4BF8-A31E-DC525B585851}" type="presParOf" srcId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" destId="{C90A8526-C7F8-41AB-896D-205DF3529C95}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{88D54AF6-822D-42ED-93CE-DCA6377CDF22}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{E6866069-E709-4D14-AC64-2E24210369BF}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A7034B63-965F-4DAC-AFC0-CD0ADD1D222F}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EB8A13B4-AFDD-4203-B6E8-BF85C5FD5460}" type="presParOf" srcId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" destId="{5439DA56-DC67-4729-9114-F92A9DCC5683}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5B4D8CF1-5B8E-4DC4-9F98-ACED163CC134}" type="presParOf" srcId="{5439DA56-DC67-4729-9114-F92A9DCC5683}" destId="{E4BEC828-51B0-48F3-96A5-0C96FE8C964A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A4CE49FC-970D-4552-8D87-5F2BC4726AD4}" type="presParOf" srcId="{5439DA56-DC67-4729-9114-F92A9DCC5683}" destId="{ED0B238B-E25D-49DC-BDF0-280353404EDA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D55C5238-6BC1-46D4-AD19-98891FD98C50}" type="presParOf" srcId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" destId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BF259B3E-83C6-4A19-B188-F4B868EF3763}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{6B617CEF-C370-4844-9DDA-BC1FD2DDA9A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A99126AA-D00D-4209-ACB8-641452AEF487}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{03EB0EE0-C932-44AA-8206-AE1DE6D02F9F}" type="presParOf" srcId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" destId="{D34D78CE-76B8-4559-9B43-65998CD326B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AD8F3450-FAA7-4881-8759-047649B5A6DE}" type="presParOf" srcId="{D34D78CE-76B8-4559-9B43-65998CD326B3}" destId="{C0090BBE-342D-42F8-9C93-6328191002E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D4FA26A0-9A83-4889-ACF3-67AD959EB063}" type="presParOf" srcId="{D34D78CE-76B8-4559-9B43-65998CD326B3}" destId="{D5E77C82-62E9-47E2-9254-1B7391F2B56B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8D3AC638-9D82-4609-8307-3E66FE9A9614}" type="presParOf" srcId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" destId="{2260B635-991C-4B6F-BBE6-7063565AEB6C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8984F37B-7D4F-49EA-893F-824A2A686A53}" type="presParOf" srcId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" destId="{9D0C1B35-CA2A-4DBD-95BD-C7673DD13A16}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4963DF33-2647-42B8-999C-9C8664EBF99E}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{DDE4A896-771F-4E5C-A399-D401100434B8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{57DEE482-0147-4E6C-8696-5DF6572E31A0}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3AA53FA1-F670-4C4F-8E0D-EE6C64064AEA}" type="presParOf" srcId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" destId="{C26F58C3-B9A0-468F-9E3E-C563372A96E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{799081F9-3513-41F4-9BA5-3B6242311255}" type="presParOf" srcId="{C26F58C3-B9A0-468F-9E3E-C563372A96E6}" destId="{F92F3B4E-7767-4FCC-AF43-87EC5FE9B7B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D1884FD0-0DFD-438A-97EE-3C00CFE294FA}" type="presParOf" srcId="{C26F58C3-B9A0-468F-9E3E-C563372A96E6}" destId="{6F664D7C-E1C7-4CE4-82F5-30BCAAB641D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AFCA83ED-807A-4606-8476-3FFF33991FD7}" type="presParOf" srcId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" destId="{11195705-1F01-4A74-B622-0DED7A485BFB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4685A9B3-2758-4D46-945F-8FC215CF356F}" type="presParOf" srcId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" destId="{E1C5B5F2-E2FC-4FD3-A60F-CA3F8F373C45}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F93D3CB-2F10-46FD-9819-8B63C66113C3}" type="presParOf" srcId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" destId="{37E3FA2E-4151-4EB2-B4DD-0B6B558F9CFB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{54498811-8396-4D99-ADB2-8107AD762EAE}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{D87D00D3-4D8F-4CCF-9217-C89B63A31973}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7CC4FC3E-0AC6-44EA-9F17-51FE1C51C106}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AC29D4D3-AF2E-42D5-8A78-91C8E45251AB}" type="presParOf" srcId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" destId="{AF79D668-D5F3-450E-BD8A-A567C4372245}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8A499012-A4F8-44A3-BD8E-2967D5F871F1}" type="presParOf" srcId="{AF79D668-D5F3-450E-BD8A-A567C4372245}" destId="{CD3D9B7B-32AF-48E7-A6B5-153335DA58ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{70D0BF31-8995-4341-B0D3-FB2595602D22}" type="presParOf" srcId="{AF79D668-D5F3-450E-BD8A-A567C4372245}" destId="{03877453-6CF3-4064-9FE5-8A6EC1F17229}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D49E0FD9-DCE5-443C-8A34-D4DBD4999CBE}" type="presParOf" srcId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" destId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{09AEB8C9-FCF3-495E-AEE1-1C8193AABCCC}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{30787840-8AB1-49EE-9B27-FD1810E4D221}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1EAD2E6A-2C89-4C7F-B175-645F513F1868}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{375105A0-B7CA-4C9C-8DBC-DC80E56131F4}" type="presParOf" srcId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" destId="{110BDC08-8310-4888-AF74-DA8E66E83C7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0253450E-255D-462B-B686-02988C9AE909}" type="presParOf" srcId="{110BDC08-8310-4888-AF74-DA8E66E83C7B}" destId="{7F4C330C-8D4A-4041-A83C-037B8631E559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F4FAB5D9-8FF3-4C21-ABB4-7D9FACA3B7F5}" type="presParOf" srcId="{110BDC08-8310-4888-AF74-DA8E66E83C7B}" destId="{7F87C74F-0373-473E-A4F7-AA0E69B1208E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{17C92DBC-109F-4176-8261-4023CF7F8B78}" type="presParOf" srcId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" destId="{F48E50CC-78EF-4AD0-AF8C-309F027D3C3C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B24A6455-9875-46D1-9967-24C89F4382BB}" type="presParOf" srcId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" destId="{2243E20D-3CAF-446E-BD64-064D6B54EAA9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7D382057-2E3C-498D-9F3B-3B09C1866462}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{C7164AFE-A6B3-4CFC-BB20-3F0B186B4246}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{369B78E1-F771-4F5B-86CA-73BD57C7B480}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C8B15B58-29D2-4D9C-AA79-AA02680ED32A}" type="presParOf" srcId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" destId="{EDAB496B-1423-4535-A1F1-3404F1B26D30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A73A6229-3619-45AC-85DE-57246CD767EB}" type="presParOf" srcId="{EDAB496B-1423-4535-A1F1-3404F1B26D30}" destId="{DAD7DE40-9421-4CCA-BE7E-978D497C69EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AD889105-DFB3-4F73-B3F9-0275F85F66DF}" type="presParOf" srcId="{EDAB496B-1423-4535-A1F1-3404F1B26D30}" destId="{908D6E39-B077-4124-8AAE-E5744139478A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B5DF6302-832A-4EBE-8944-78E18CFF295E}" type="presParOf" srcId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" destId="{779AE720-0FFA-4118-BD6B-DB7F1E47758D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A7616196-AD1A-4EFB-83CE-643397EB3D53}" type="presParOf" srcId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" destId="{A3F75BDF-51DC-48A6-B297-4BC75970A840}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{89246DF0-B79D-417A-9C30-21D79886EF29}" type="presParOf" srcId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" destId="{0479A8A4-A03C-44BB-A500-C04379DAE051}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7C7C0135-8338-47D3-AD85-EA760057E102}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{09DB3675-1E62-41EC-B40A-27BA035793F6}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FD59B70E-67D8-4FEB-9267-F2390DCDE4AB}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8750880F-3301-490E-B557-5F168B44F355}" type="presParOf" srcId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" destId="{22FF0495-5DCC-4D93-B8F2-7A42BB31FA12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B7063A9A-D7C1-4A52-85E8-E4C7591088B2}" type="presParOf" srcId="{22FF0495-5DCC-4D93-B8F2-7A42BB31FA12}" destId="{5573E54C-45A5-4522-88E2-0516A08DB9C4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DE340352-8BEA-4E4E-AF46-5087E1221524}" type="presParOf" srcId="{22FF0495-5DCC-4D93-B8F2-7A42BB31FA12}" destId="{B6A4561E-55D3-4B49-AAD6-E28C6AF9B548}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7E597C06-95C1-44D5-8C8F-4EB9DE8ED47E}" type="presParOf" srcId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" destId="{1CE2AF5D-3449-49E9-8FA5-F6058846A3CD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B39EA291-2795-4800-8C09-975321B579DD}" type="presParOf" srcId="{1CE2AF5D-3449-49E9-8FA5-F6058846A3CD}" destId="{1C6E6E63-DFBF-470B-8455-AFE20F65CAFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8D71D5BA-0FE0-40D2-868A-367CA260DD21}" type="presParOf" srcId="{1CE2AF5D-3449-49E9-8FA5-F6058846A3CD}" destId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FA45E4B8-E56B-4C4F-BB43-C2C7D225EB93}" type="presParOf" srcId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" destId="{C9EE3AE9-3C89-46DA-9092-CFEA8DB6A173}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D86F9D32-7932-4643-BA07-58930BFFACC7}" type="presParOf" srcId="{C9EE3AE9-3C89-46DA-9092-CFEA8DB6A173}" destId="{71CF1253-D2CD-4BB9-A63B-03A765A7D678}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9C8B1F58-76A2-433C-872B-4452266CFB4B}" type="presParOf" srcId="{C9EE3AE9-3C89-46DA-9092-CFEA8DB6A173}" destId="{515500CB-34AB-4847-A30B-558B4B2FC1FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D9B9AC85-0569-469C-B42C-40DFC4339AB8}" type="presParOf" srcId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" destId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{512032AD-DCAC-4725-8A64-EDB807F96511}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{4D1AA829-559E-47F4-800E-3D1A680E9C9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{406308CD-8B96-4D97-8E14-8B4B5DAEF3BD}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{89261052-5EB5-4C7B-9F83-2E87C81363BA}" type="presParOf" srcId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" destId="{6F3A5607-D1C2-4EA2-9EFD-5E133E146DC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8711FD9B-4CAA-4B91-AEB2-FAD4E33BF829}" type="presParOf" srcId="{6F3A5607-D1C2-4EA2-9EFD-5E133E146DC5}" destId="{CC06F08F-1FC4-496E-8EAC-7F6E955C6B45}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5DD91CCE-80BD-45BE-AE74-D1F99E3CC14D}" type="presParOf" srcId="{6F3A5607-D1C2-4EA2-9EFD-5E133E146DC5}" destId="{E135BAD5-1A70-47B4-8321-8269DC9C72FE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BAC71E06-C6F8-4E81-8BE7-16732C60B3A4}" type="presParOf" srcId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" destId="{44BBDC3F-D3FD-4B50-9C4E-26A904B40A90}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4340F62A-AC34-4289-AF16-1A52636754B3}" type="presParOf" srcId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" destId="{6466ED65-0CA8-4F22-9E23-283DBA0BD04C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{238C9C94-E38C-4117-B953-374D080B0B6C}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{03F6B8CA-B9C1-477A-B72C-7E52FFB5F0FE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B1B88804-2FAE-4B70-B7A2-546AA9624210}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9718F782-9CC0-42B5-9ACA-8823DC7503E4}" type="presParOf" srcId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" destId="{D0ADA621-AA17-432D-BA58-7EFC5B1B89CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EDBB79C1-F08A-4140-8FAC-D1CAFF5D50C5}" type="presParOf" srcId="{D0ADA621-AA17-432D-BA58-7EFC5B1B89CB}" destId="{9A249E65-1DFE-4BF3-97F8-B187D1FA7B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CEE05030-201C-4EC3-80EC-D8B040993A83}" type="presParOf" srcId="{D0ADA621-AA17-432D-BA58-7EFC5B1B89CB}" destId="{4A85FFCF-60E4-4D33-B03F-9BBE70043C7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BE07334A-8A43-4755-8628-93EB4DF3594A}" type="presParOf" srcId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" destId="{E0CC7E57-C17F-425C-A241-63CB13389A33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E1BA1E24-1F3F-4CBC-88B4-A01E511BA23A}" type="presParOf" srcId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" destId="{859632AC-677C-4993-BF5F-D5321A70829A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9D011031-5EF5-4328-9472-C49909D85361}" type="presParOf" srcId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" destId="{9F99457E-976A-4B85-8F6B-156AAD9A5CBA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DC102F00-4783-41CB-8F06-3853970887BE}" type="presParOf" srcId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" destId="{8B779C39-FEA8-4F1C-832F-2F9A32A94D21}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5098FA75-0FAC-4050-9D95-68F930B9B1D9}" type="presParOf" srcId="{143A880F-E69E-4E07-8256-7519A2099B17}" destId="{F6EC070B-7092-47C2-9589-9CB1919E325B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DFCD72D1-896A-4F35-BFB3-0B8595F9BCAE}" type="presOf" srcId="{B5CEA1B4-BDCD-4E36-9C9C-DCEB55441604}" destId="{ED0B238B-E25D-49DC-BDF0-280353404EDA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B4148B85-8E93-4795-9678-EC1E22F96476}" type="presOf" srcId="{1D6B5AAB-AD91-42F5-9F29-ED303193C3BD}" destId="{EED3D681-F603-472B-AB9E-234C9A9F28E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AAA9AF36-7456-4C14-B06C-7386C728F460}" type="presOf" srcId="{D0ABFCDE-43C8-4A0C-9920-FEACC8115461}" destId="{03877453-6CF3-4064-9FE5-8A6EC1F17229}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{22EEFC83-F77E-4130-8492-BCEB1DF8C329}" type="presOf" srcId="{09845C24-F21C-4D29-8EAF-701E5CAC5E1B}" destId="{1E91E9E5-DF7C-4B24-8A18-8260EB1CCE47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA90E89A-82AF-46AF-87D9-D46BE3991B50}" type="presOf" srcId="{D6BE1315-85AB-4B0E-8AA7-38E0B5B0D1FB}" destId="{DDE4A896-771F-4E5C-A399-D401100434B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78E150AF-E974-46D2-97FD-A537F3C4C553}" type="presOf" srcId="{95EFF924-5B6B-41FD-8ACE-1E60BD00ADBB}" destId="{2F6C6A87-31A5-45B7-AEF1-D7FA43CA1309}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ABA261E7-4744-45D8-8FB1-42BE22A809E3}" type="presParOf" srcId="{9F84C3BF-6C91-47CE-8C69-25B5AF58816E}" destId="{143A880F-E69E-4E07-8256-7519A2099B17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FC4489D2-9FEC-4946-BB3E-86B103810C25}" type="presParOf" srcId="{143A880F-E69E-4E07-8256-7519A2099B17}" destId="{625B2143-7AD3-4C0F-8D33-AE9B34C4AD72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{41D59B7E-CE69-47DD-BA26-442977DFE127}" type="presParOf" srcId="{625B2143-7AD3-4C0F-8D33-AE9B34C4AD72}" destId="{D0542FC8-3ABC-4CF5-9C7F-6715BE3069B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78B251EA-5926-4AA7-8FEE-615A9E6E1B98}" type="presParOf" srcId="{625B2143-7AD3-4C0F-8D33-AE9B34C4AD72}" destId="{8EACB4EF-31B8-4AF4-8887-94F99A4029D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1BD384D8-EE2B-447A-9621-7B5D62777B6A}" type="presParOf" srcId="{143A880F-E69E-4E07-8256-7519A2099B17}" destId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BC5DC178-BA1F-4ED4-A7B3-62BF7E80C0EC}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{1B53A340-7278-4282-BCA7-34529876A276}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CBDB913D-1D80-4C31-B878-6AC8D1B8690D}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{95C01A2E-9D2D-4FCA-B239-3B82438EF454}" type="presParOf" srcId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" destId="{3799C5FD-41DD-43A6-A9EC-608E24B35486}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2FEBB030-6A66-4477-8325-4E9D825C3940}" type="presParOf" srcId="{3799C5FD-41DD-43A6-A9EC-608E24B35486}" destId="{4548DABE-FB19-4A56-98C5-7B3AE8CD1690}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5E5D80F8-3A4C-4F6E-8A69-781008F31DFB}" type="presParOf" srcId="{3799C5FD-41DD-43A6-A9EC-608E24B35486}" destId="{1E91E9E5-DF7C-4B24-8A18-8260EB1CCE47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{19C08405-8D07-4CE9-9B5D-C016E1DED9D2}" type="presParOf" srcId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" destId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C462D165-F3B9-4AFB-A3E1-F89A8B4DE1FD}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{68D1782F-7F29-41C1-89E5-8E0F4B9D9A23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A06FEFB8-176D-4E21-B7B3-6D87416F320F}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BA817FEE-75CE-42CE-B883-E206D633F5BB}" type="presParOf" srcId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" destId="{C53D5A74-C19A-49CE-B4AD-1F0B9008F787}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FC38E37A-109C-45B1-8C55-F149015F6622}" type="presParOf" srcId="{C53D5A74-C19A-49CE-B4AD-1F0B9008F787}" destId="{183A89F2-CE02-4D15-8AA7-82B94A25F0E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{03EBF2A3-F996-40CA-8C9E-AD98F3D3CE98}" type="presParOf" srcId="{C53D5A74-C19A-49CE-B4AD-1F0B9008F787}" destId="{4A62C554-2B4B-4003-8894-3B67C6F45813}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BE9E1950-A699-44BB-B141-FE09CE8F7270}" type="presParOf" srcId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" destId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{67976B7A-1CF2-4A06-9D85-300D986B8AFC}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{877DCC39-D30C-449B-AA96-BFABDAEBC168}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BD3EE715-F2A8-4D4B-88CD-21F98BAE5475}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CFDEC74C-ED5E-4481-82DA-9E4B32A9B0BC}" type="presParOf" srcId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" destId="{99A135B2-5F74-4CCC-B18B-BD03E02F16FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05A73537-3289-4FEE-A8D4-38603C597E9C}" type="presParOf" srcId="{99A135B2-5F74-4CCC-B18B-BD03E02F16FD}" destId="{13642BD0-DE59-48D2-BA02-ACD69C81E007}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7373A99D-6C74-4F3F-B034-6D67805DC042}" type="presParOf" srcId="{99A135B2-5F74-4CCC-B18B-BD03E02F16FD}" destId="{6D416773-EAF7-418B-B839-6E53F8F5695E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6C389956-7316-4DA2-8D30-F043DED048AC}" type="presParOf" srcId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" destId="{4F569DC4-DFA0-44F1-920D-263FC92D0D7C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B4F3AA99-F7AA-4D02-8836-0116813191B0}" type="presParOf" srcId="{8D8225D3-2DED-4004-A22F-FDC18780605F}" destId="{F5080FD1-193D-4BC5-97DB-AB1A46D2BD33}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AC64EC2A-3755-4547-887E-A7E32CC7513A}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{73D5EA39-36D9-433B-8FD9-1AA78478AA13}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DACCB9A5-5162-42BA-A0D0-395A94CFB2BD}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{81377769-1712-4AAD-8AB8-2944C30480C6}" type="presParOf" srcId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" destId="{527FF6CF-2C8C-4155-94E1-A96D7E8B3B3F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2023065-8C95-46A6-9ABF-2EE82C5BCFF2}" type="presParOf" srcId="{527FF6CF-2C8C-4155-94E1-A96D7E8B3B3F}" destId="{2F6C6A87-31A5-45B7-AEF1-D7FA43CA1309}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DE88ACBB-15A6-4B2B-A1DA-1947B6832417}" type="presParOf" srcId="{527FF6CF-2C8C-4155-94E1-A96D7E8B3B3F}" destId="{51A51A01-4F2D-48A0-A9DA-4C18F2871E02}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F745B4E7-F245-46FE-BF6B-93407C2C0142}" type="presParOf" srcId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" destId="{E8282368-1CC7-49BE-ACB1-0A56C3936D30}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{91EB809F-1D87-471F-A1A5-2586D098A2DD}" type="presParOf" srcId="{594D5AE5-8412-476D-A455-B3A3A41C5E72}" destId="{1CF0F9C5-51F3-43E2-9721-C2A4B957A379}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1B3DF2A1-98B6-4124-A83A-39F5A4E4B681}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{F49835A5-5DB8-42C9-A094-FE65EBE13F33}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{967492B0-CF08-42C4-B787-04151E5A5ACD}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD2FD4F0-EDB1-4AB7-8201-84BC041DB046}" type="presParOf" srcId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" destId="{F54FDDEF-225F-4EC7-9297-8EE703DE46B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9446784A-3F7D-46B1-BCEC-1235E89859CD}" type="presParOf" srcId="{F54FDDEF-225F-4EC7-9297-8EE703DE46B6}" destId="{E16BD780-C81B-4509-BCA8-98F45A48692B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7545FA07-1051-4B18-9344-A29AB1978D92}" type="presParOf" srcId="{F54FDDEF-225F-4EC7-9297-8EE703DE46B6}" destId="{8B7DDB96-B2C0-44F2-81DE-A2F3F5026610}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9AA807E4-F031-4DB5-9682-A057DF0287A0}" type="presParOf" srcId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" destId="{E2970342-88BF-4C61-BBE1-5C2153020678}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{16F34659-98E0-4759-AEFA-88D1FA2C606D}" type="presParOf" srcId="{DBFD252A-410D-41FA-A763-FFE4C2DF0F55}" destId="{37923B0A-F47E-47F2-AED1-1C0F7F2AD0EE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB8813D8-0933-49EC-8D9B-CAAFAB9CC657}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{10380F16-95A7-4D82-A30B-057DDDC37DE5}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E1738E9-9898-4267-89AA-E26F882B2623}" type="presParOf" srcId="{0AFB5E68-29B6-44A5-AA9F-53543D7AAF81}" destId="{A62404CF-F252-40A4-8801-B880CF46C103}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AA4ED6FE-3527-46DA-9C32-D11E694F52C4}" type="presParOf" srcId="{A62404CF-F252-40A4-8801-B880CF46C103}" destId="{E420215C-99FC-4950-9D76-9BDD8174662F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{02A82D26-29FB-4BE9-89EC-974695A02323}" type="presParOf" srcId="{E420215C-99FC-4950-9D76-9BDD8174662F}" destId="{9716CAD8-3C3E-4522-889B-E080BEBC9DD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6B6FBBE0-3529-4C00-8158-91026E1DFFEE}" type="presParOf" srcId="{E420215C-99FC-4950-9D76-9BDD8174662F}" destId="{EED3D681-F603-472B-AB9E-234C9A9F28E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{33D265C4-B451-4FCF-8163-361C047FF5CB}" type="presParOf" srcId="{A62404CF-F252-40A4-8801-B880CF46C103}" destId="{8C8D7550-27FB-40D8-9506-50EFF2B881D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ABF5112A-851D-4C79-9EFC-AD059E369838}" type="presParOf" srcId="{A62404CF-F252-40A4-8801-B880CF46C103}" destId="{80A03204-7117-497C-BC0A-22AAB8C37810}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2BCB18FF-A789-4B1C-AA63-B73205E44EB6}" type="presParOf" srcId="{C871A100-B98C-43B9-85D0-D513C91ACB27}" destId="{EBAFEF32-C607-4647-A4C6-1A8E5FD48893}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E2CE10A4-07CB-43A2-80DD-E13EED1B6559}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{B69D99E1-C1ED-4423-BA45-9E4D685384FB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A2B9F65A-4B02-4A5C-8C1A-3F817AC0F0FE}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BC210D12-6B2A-4708-A119-A0525373D198}" type="presParOf" srcId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" destId="{9FEA722F-DA26-4E41-9EDE-F154062658D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{05459045-57E4-4834-AC22-BEDE77F97054}" type="presParOf" srcId="{9FEA722F-DA26-4E41-9EDE-F154062658D7}" destId="{5D2B7F2B-0B29-4488-A6E5-2EFA970D6B85}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1CFA2896-5845-4F24-BD5B-1A4318828451}" type="presParOf" srcId="{9FEA722F-DA26-4E41-9EDE-F154062658D7}" destId="{B099BEEC-34B7-454A-B1F0-EDE86D1E7D3B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{09D1A021-5BFD-4CD7-BFE6-1104737932AD}" type="presParOf" srcId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" destId="{469CE801-92CF-4153-A4C0-565680798D90}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A7EB08B7-C648-4DB9-879A-27A464CD522C}" type="presParOf" srcId="{469CE801-92CF-4153-A4C0-565680798D90}" destId="{DE485A75-0288-4365-B104-3D508999408C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4CA8395B-06F9-4DD7-9C5F-D33B5A972FFB}" type="presParOf" srcId="{469CE801-92CF-4153-A4C0-565680798D90}" destId="{200DC69D-505F-4C55-A074-DE011337A3E3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4A76F084-2F98-424E-A4E0-C342EC4E4F74}" type="presParOf" srcId="{200DC69D-505F-4C55-A074-DE011337A3E3}" destId="{5E4EE6A0-F4B4-4145-BB49-65D06B37DCE3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EF0C21AE-2979-4332-AFFE-FAB37B092295}" type="presParOf" srcId="{5E4EE6A0-F4B4-4145-BB49-65D06B37DCE3}" destId="{5D2E00FC-F503-4E70-94CD-26E55B262F55}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A1CD2C42-9B7D-43DF-99BD-3EBBAD449653}" type="presParOf" srcId="{5E4EE6A0-F4B4-4145-BB49-65D06B37DCE3}" destId="{6DCD138F-E6B2-473C-BFD2-ED0A0A23BF29}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E358828-E61C-4AC6-A49A-79965175DE87}" type="presParOf" srcId="{200DC69D-505F-4C55-A074-DE011337A3E3}" destId="{8E17C02E-76B0-47B1-A5C0-F0A4CF0301C2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8F638C2F-199D-4888-BDB1-F46DA6BD53C2}" type="presParOf" srcId="{200DC69D-505F-4C55-A074-DE011337A3E3}" destId="{8047F633-92CD-49E4-8C8C-0F57E2FD63E0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{23A903FE-4022-4ECE-A813-8CC64784C43F}" type="presParOf" srcId="{E1AB29A8-0C9C-4FC6-855C-825226276BF1}" destId="{7300F207-78E3-4373-9433-2446A395F1F8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DFDB6CA9-DF9B-4A42-959F-8C19048256C5}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{E6866069-E709-4D14-AC64-2E24210369BF}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{20E94CB2-C663-430F-B54A-6B28FF387ABE}" type="presParOf" srcId="{0441E26E-68C1-440B-99EE-81A9342F3D5A}" destId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE173A6F-C964-42AC-A9AF-FCDF05E836FF}" type="presParOf" srcId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" destId="{5439DA56-DC67-4729-9114-F92A9DCC5683}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2490E9BE-0D9C-4C0E-B1A7-AE09AE1015DA}" type="presParOf" srcId="{5439DA56-DC67-4729-9114-F92A9DCC5683}" destId="{E4BEC828-51B0-48F3-96A5-0C96FE8C964A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{87A33716-6D4E-47FE-A815-7020CE426CE8}" type="presParOf" srcId="{5439DA56-DC67-4729-9114-F92A9DCC5683}" destId="{ED0B238B-E25D-49DC-BDF0-280353404EDA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0D279B00-39FE-4A31-8B0B-9A6E7D8E5DCC}" type="presParOf" srcId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" destId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AF6C74BC-2236-4A4A-A63A-98834BAA4D1D}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{6B617CEF-C370-4844-9DDA-BC1FD2DDA9A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C9BC26C4-C0DA-47B3-91A9-2A0487923FD0}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F47C2EE4-8F45-47CC-81CD-50B97220B09C}" type="presParOf" srcId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" destId="{D34D78CE-76B8-4559-9B43-65998CD326B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D093B697-778F-4A4D-A60D-2A86D605BA28}" type="presParOf" srcId="{D34D78CE-76B8-4559-9B43-65998CD326B3}" destId="{C0090BBE-342D-42F8-9C93-6328191002E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{42DA20B1-442A-457D-B99A-CF0894CA0E3D}" type="presParOf" srcId="{D34D78CE-76B8-4559-9B43-65998CD326B3}" destId="{D5E77C82-62E9-47E2-9254-1B7391F2B56B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{991F9D9C-2F97-49A0-A5EC-5BB2F1BC715D}" type="presParOf" srcId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" destId="{2260B635-991C-4B6F-BBE6-7063565AEB6C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{477AE899-7B5F-4156-83BE-68068612AE4E}" type="presParOf" srcId="{EC5BAC95-F2D0-4A24-972F-21466C0FA097}" destId="{9D0C1B35-CA2A-4DBD-95BD-C7673DD13A16}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{60144F13-ED18-4B22-8574-233BE8F1B1A5}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{DDE4A896-771F-4E5C-A399-D401100434B8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{68FCEE38-7013-4F63-A804-D8D355F698B4}" type="presParOf" srcId="{307F2873-E8EB-4706-B60C-FA07161A3B1D}" destId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CA8F5456-7144-476E-8CEF-188C84D8B8A2}" type="presParOf" srcId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" destId="{C26F58C3-B9A0-468F-9E3E-C563372A96E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DF3802D5-7DCB-45E1-979D-35BCFD5D6038}" type="presParOf" srcId="{C26F58C3-B9A0-468F-9E3E-C563372A96E6}" destId="{F92F3B4E-7767-4FCC-AF43-87EC5FE9B7B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75E0099E-C18C-412C-840A-D6348C7DBF93}" type="presParOf" srcId="{C26F58C3-B9A0-468F-9E3E-C563372A96E6}" destId="{6F664D7C-E1C7-4CE4-82F5-30BCAAB641D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A51F3F85-C610-47A0-806F-2526A64265D9}" type="presParOf" srcId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" destId="{11195705-1F01-4A74-B622-0DED7A485BFB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1192E554-8E8A-4247-AAC2-CBA94E759796}" type="presParOf" srcId="{C14DCBB7-36BD-45D1-9E17-95B05F4EA3CC}" destId="{E1C5B5F2-E2FC-4FD3-A60F-CA3F8F373C45}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{37D8D1D7-4B09-4772-9E62-D9D4662187BD}" type="presParOf" srcId="{1AAC9D31-7747-48BA-B727-54E4A9056643}" destId="{37E3FA2E-4151-4EB2-B4DD-0B6B558F9CFB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AD96116D-A055-406A-A6DB-3D71780FD477}" type="presParOf" srcId="{BA3139D4-5C8F-4C52-AE62-88AAA982A82C}" destId="{C90A8526-C7F8-41AB-896D-205DF3529C95}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CD84B726-B012-442E-B268-887FDBEA2F32}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{D87D00D3-4D8F-4CCF-9217-C89B63A31973}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{62B60EBD-11CA-40C4-955C-6E6EA2B5C212}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{91B0BF2D-8B2B-4B7D-8CB2-EDF1DA175D0B}" type="presParOf" srcId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" destId="{AF79D668-D5F3-450E-BD8A-A567C4372245}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D382E70C-05CC-46DB-82A9-38BC9E8FCA2C}" type="presParOf" srcId="{AF79D668-D5F3-450E-BD8A-A567C4372245}" destId="{CD3D9B7B-32AF-48E7-A6B5-153335DA58ED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{78469838-5F1D-4589-95DB-9A689EF3A14F}" type="presParOf" srcId="{AF79D668-D5F3-450E-BD8A-A567C4372245}" destId="{03877453-6CF3-4064-9FE5-8A6EC1F17229}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{660D98ED-C36F-4B26-ADD6-09A211E292A0}" type="presParOf" srcId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" destId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7C03AF4E-E847-4671-89A2-C6662BBE01E7}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{BE3D61E7-4F44-4C4B-8417-C0E21524D435}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9C1ED8F1-CED4-4B54-B9FF-A1BB7262D344}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{FB56A55F-AECC-4E8D-B061-4BAC0890A8D1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{298D2145-E220-4550-91C7-929656B6ED0D}" type="presParOf" srcId="{FB56A55F-AECC-4E8D-B061-4BAC0890A8D1}" destId="{33142EA4-AA84-480C-AC5F-3E75CCFD66D1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C77F0F97-D7AF-45AC-A838-3E12716E893C}" type="presParOf" srcId="{33142EA4-AA84-480C-AC5F-3E75CCFD66D1}" destId="{7BE414DC-6F82-4B0D-BA9C-0E6D713746EF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{79754229-52DA-46AB-9B87-C72D3C01296D}" type="presParOf" srcId="{33142EA4-AA84-480C-AC5F-3E75CCFD66D1}" destId="{D6997898-92B4-4B2E-91CB-3F028AC20ED4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B96A135E-BE62-40CB-8129-625D003EA60D}" type="presParOf" srcId="{FB56A55F-AECC-4E8D-B061-4BAC0890A8D1}" destId="{4E2F94FD-1524-4D41-9207-CABFE5782BC2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{23ACF6DD-C2F0-42FB-BE05-D40D1CF62AC6}" type="presParOf" srcId="{FB56A55F-AECC-4E8D-B061-4BAC0890A8D1}" destId="{26C16ED9-79B5-47C7-B1C5-845ED208C39C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C722EC86-A71D-470E-8908-65577ADF9EBB}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{30787840-8AB1-49EE-9B27-FD1810E4D221}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{31A65975-5C38-463A-A39D-84BA7CF90B4B}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{688648D7-F022-44D1-9FD2-76C1075E3DF7}" type="presParOf" srcId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" destId="{110BDC08-8310-4888-AF74-DA8E66E83C7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0A141901-6777-4CA0-BC75-C89E0D3636B5}" type="presParOf" srcId="{110BDC08-8310-4888-AF74-DA8E66E83C7B}" destId="{7F4C330C-8D4A-4041-A83C-037B8631E559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{74D37E66-AC83-4FE7-8939-1223A66099C7}" type="presParOf" srcId="{110BDC08-8310-4888-AF74-DA8E66E83C7B}" destId="{7F87C74F-0373-473E-A4F7-AA0E69B1208E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{889F2CB0-0E76-4947-BEA3-966ABB39E684}" type="presParOf" srcId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" destId="{F48E50CC-78EF-4AD0-AF8C-309F027D3C3C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F8388558-C01C-4108-8157-56F7C8AE41F4}" type="presParOf" srcId="{9C1F3242-8D4B-4178-9894-B4B449D61F4E}" destId="{2243E20D-3CAF-446E-BD64-064D6B54EAA9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{29F3BB5C-5A04-44D7-8A37-4B7EBB87746B}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{C7164AFE-A6B3-4CFC-BB20-3F0B186B4246}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F9351CF8-510F-49E6-9EC3-9DE6040992EE}" type="presParOf" srcId="{184F78C7-71E1-4470-92E7-6BBDD69DFACD}" destId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3AD26B84-662C-42F9-9B23-252E7797D1A2}" type="presParOf" srcId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" destId="{EDAB496B-1423-4535-A1F1-3404F1B26D30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{125DB865-2FBE-4405-B2A6-0ED8D46B72FC}" type="presParOf" srcId="{EDAB496B-1423-4535-A1F1-3404F1B26D30}" destId="{DAD7DE40-9421-4CCA-BE7E-978D497C69EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1949DC7B-8CCB-4FA8-8CC3-0277881753D9}" type="presParOf" srcId="{EDAB496B-1423-4535-A1F1-3404F1B26D30}" destId="{908D6E39-B077-4124-8AAE-E5744139478A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{53981A06-C188-4441-B18F-3D5546E9BD8C}" type="presParOf" srcId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" destId="{779AE720-0FFA-4118-BD6B-DB7F1E47758D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0E8429E4-DBF6-4051-893E-2857E8FDA5B9}" type="presParOf" srcId="{F775AA44-B6E3-4F67-AE70-052E1044CCCE}" destId="{A3F75BDF-51DC-48A6-B297-4BC75970A840}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{082FDF42-D997-4D6D-B7DA-9BA56B565821}" type="presParOf" srcId="{1B529506-ECFE-45B6-B375-ACE95CDAB136}" destId="{0479A8A4-A03C-44BB-A500-C04379DAE051}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36780F09-66DE-4827-B879-BE909D5A8023}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{09DB3675-1E62-41EC-B40A-27BA035793F6}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E888D99F-EAC9-4705-B88E-2E31DDAAC30C}" type="presParOf" srcId="{CECA4E90-84F5-4A44-8F11-B309594A3D48}" destId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CC172388-0598-42D9-81CD-42C3433C6D8F}" type="presParOf" srcId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" destId="{22FF0495-5DCC-4D93-B8F2-7A42BB31FA12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F54771A-0EC2-4B68-90D4-7E6D56306442}" type="presParOf" srcId="{22FF0495-5DCC-4D93-B8F2-7A42BB31FA12}" destId="{5573E54C-45A5-4522-88E2-0516A08DB9C4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{79F158BC-562F-456D-B4BC-F5B26E97DC77}" type="presParOf" srcId="{22FF0495-5DCC-4D93-B8F2-7A42BB31FA12}" destId="{B6A4561E-55D3-4B49-AAD6-E28C6AF9B548}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6C7DC77E-63CD-45B8-9467-F8229257E41A}" type="presParOf" srcId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" destId="{1CE2AF5D-3449-49E9-8FA5-F6058846A3CD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A22F7258-6FC5-4D6E-B890-514D46CD2617}" type="presParOf" srcId="{1CE2AF5D-3449-49E9-8FA5-F6058846A3CD}" destId="{1C6E6E63-DFBF-470B-8455-AFE20F65CAFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1A2755FC-048C-4520-8455-025522F9A8BF}" type="presParOf" srcId="{1CE2AF5D-3449-49E9-8FA5-F6058846A3CD}" destId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F680D47D-8F62-4E08-9011-79157EE54F31}" type="presParOf" srcId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" destId="{C9EE3AE9-3C89-46DA-9092-CFEA8DB6A173}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1882397E-01D0-442D-8115-710D87FDA77B}" type="presParOf" srcId="{C9EE3AE9-3C89-46DA-9092-CFEA8DB6A173}" destId="{71CF1253-D2CD-4BB9-A63B-03A765A7D678}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4178F1F6-EC2B-4B2B-A124-244C26F30F97}" type="presParOf" srcId="{C9EE3AE9-3C89-46DA-9092-CFEA8DB6A173}" destId="{515500CB-34AB-4847-A30B-558B4B2FC1FD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B47E8435-A51B-4F5C-A0CC-3DE497F8CA73}" type="presParOf" srcId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" destId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F31E4E19-3327-47CC-9279-249FA15468ED}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{4D1AA829-559E-47F4-800E-3D1A680E9C9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{72E92D9B-B917-4A20-B6C8-C55BE1E81551}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{80F247FD-81BF-424F-8D95-3DDF97506585}" type="presParOf" srcId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" destId="{6F3A5607-D1C2-4EA2-9EFD-5E133E146DC5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{83BDF51D-1562-411E-A1A2-308EDF4B21A8}" type="presParOf" srcId="{6F3A5607-D1C2-4EA2-9EFD-5E133E146DC5}" destId="{CC06F08F-1FC4-496E-8EAC-7F6E955C6B45}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{355E1CE8-5E06-4716-99C5-3C7DCA778E93}" type="presParOf" srcId="{6F3A5607-D1C2-4EA2-9EFD-5E133E146DC5}" destId="{E135BAD5-1A70-47B4-8321-8269DC9C72FE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9CFB62EF-F441-4536-9437-54000506CDA1}" type="presParOf" srcId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" destId="{44BBDC3F-D3FD-4B50-9C4E-26A904B40A90}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E50D258F-19FB-47A8-82C3-9B06C1A6CFF3}" type="presParOf" srcId="{FEDF540E-B7DC-45D7-8B1C-15B15353997A}" destId="{6466ED65-0CA8-4F22-9E23-283DBA0BD04C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0284CBC6-45CF-4E0B-AA15-5638CB563184}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{03F6B8CA-B9C1-477A-B72C-7E52FFB5F0FE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1020224A-B3A8-4E4D-B0E5-2053AAF14171}" type="presParOf" srcId="{7A37DC35-1B15-4A28-BB04-2819735FF26B}" destId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8A9FF419-D7AD-421F-8F89-E7960DADE623}" type="presParOf" srcId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" destId="{D0ADA621-AA17-432D-BA58-7EFC5B1B89CB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2D49148D-8CFC-4752-BB55-EDD2B53B7477}" type="presParOf" srcId="{D0ADA621-AA17-432D-BA58-7EFC5B1B89CB}" destId="{9A249E65-1DFE-4BF3-97F8-B187D1FA7B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ED06F750-E006-4883-B861-07EC8455B390}" type="presParOf" srcId="{D0ADA621-AA17-432D-BA58-7EFC5B1B89CB}" destId="{4A85FFCF-60E4-4D33-B03F-9BBE70043C7D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AEED3658-0398-4B00-9F28-C528EA51EC95}" type="presParOf" srcId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" destId="{E0CC7E57-C17F-425C-A241-63CB13389A33}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A6D2CB70-5DBB-4969-BBD8-0623E02A6C91}" type="presParOf" srcId="{F15BBDAF-B5AA-427B-B9BE-22F323217CD7}" destId="{859632AC-677C-4993-BF5F-D5321A70829A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36E67DDF-BB12-4793-B6F5-679D3057F66D}" type="presParOf" srcId="{B56030B7-59E3-4061-9E7A-C66083C7EA6E}" destId="{9F99457E-976A-4B85-8F6B-156AAD9A5CBA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{952F8467-4A7A-4534-806F-FC41744765EA}" type="presParOf" srcId="{5BF0AFB1-E76D-45FA-A249-BBFE11D7E6A9}" destId="{8B779C39-FEA8-4F1C-832F-2F9A32A94D21}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8763B0E5-65EB-4D22-AEEF-2D16B343094E}" type="presParOf" srcId="{143A880F-E69E-4E07-8256-7519A2099B17}" destId="{F6EC070B-7092-47C2-9589-9CB1919E325B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -3228,7 +4501,7 @@
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
     <dgm:pt modelId="{32D8121A-FDA8-45DE-B4FC-482DE26086E8}" type="doc">
-      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -3240,7 +4513,21 @@
     </dgm:pt>
     <dgm:pt modelId="{532F4FDF-8128-4A37-8247-0AE769E2689D}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3276,7 +4563,21 @@
     </dgm:pt>
     <dgm:pt modelId="{0248F072-17A6-4E04-B3F4-9D8D831EB702}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3312,7 +4613,21 @@
     </dgm:pt>
     <dgm:pt modelId="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3348,7 +4663,21 @@
     </dgm:pt>
     <dgm:pt modelId="{034974F4-FAE7-4C83-B536-C6C9E21B6267}">
       <dgm:prSet phldrT="[Text]"/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3384,7 +4713,21 @@
     </dgm:pt>
     <dgm:pt modelId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3420,7 +4763,21 @@
     </dgm:pt>
     <dgm:pt modelId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3456,7 +4813,21 @@
     </dgm:pt>
     <dgm:pt modelId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3492,7 +4863,21 @@
     </dgm:pt>
     <dgm:pt modelId="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3528,7 +4913,21 @@
     </dgm:pt>
     <dgm:pt modelId="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3564,7 +4963,21 @@
     </dgm:pt>
     <dgm:pt modelId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3600,7 +5013,21 @@
     </dgm:pt>
     <dgm:pt modelId="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3636,7 +5063,21 @@
     </dgm:pt>
     <dgm:pt modelId="{4E5F0542-42DE-4A46-9052-1DED12C4D233}">
       <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:spPr>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+        </a:gradFill>
+      </dgm:spPr>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3682,6 +5123,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{21D75F76-0EF0-44EE-81A8-21EB55D3FE12}" type="pres">
       <dgm:prSet presAssocID="{532F4FDF-8128-4A37-8247-0AE769E2689D}" presName="hierRoot1" presStyleCnt="0">
@@ -3690,10 +5138,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{68BF83D9-1178-4E04-A161-61AAC1ED9766}" type="pres">
       <dgm:prSet presAssocID="{532F4FDF-8128-4A37-8247-0AE769E2689D}" presName="rootComposite1" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AD002F0E-2B30-4A18-AC56-DD1A37031771}" type="pres">
       <dgm:prSet presAssocID="{532F4FDF-8128-4A37-8247-0AE769E2689D}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
@@ -3713,14 +5175,35 @@
     <dgm:pt modelId="{A022BC21-DB17-4B3B-AF97-7EE1DF6DEC6D}" type="pres">
       <dgm:prSet presAssocID="{532F4FDF-8128-4A37-8247-0AE769E2689D}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{62AAD2B5-F5BF-44FE-A36D-7CAA87174290}" type="pres">
       <dgm:prSet presAssocID="{532F4FDF-8128-4A37-8247-0AE769E2689D}" presName="hierChild2" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{50A8912D-1A5F-4034-B3DF-5CD4E53ECC22}" type="pres">
       <dgm:prSet presAssocID="{8C78CF5D-7299-471B-87B1-BCF0A12155D2}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1195CA9E-BEC4-4D43-BAE3-11F40FA48BDC}" type="pres">
       <dgm:prSet presAssocID="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" presName="hierRoot2" presStyleCnt="0">
@@ -3729,10 +5212,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B237B5BD-7A83-4A3B-8410-FF382197106B}" type="pres">
       <dgm:prSet presAssocID="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{75491F9A-8068-4A2A-A838-ED7640EFFA97}" type="pres">
       <dgm:prSet presAssocID="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5">
@@ -3741,22 +5238,57 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E53CAD06-B915-4BAA-AB61-72CD698F8DF0}" type="pres">
       <dgm:prSet presAssocID="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A1AA1A1E-B5B5-41B6-B8B6-493F38A4701B}" type="pres">
       <dgm:prSet presAssocID="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DC8A52A6-7618-4285-A123-27F2FF27874A}" type="pres">
       <dgm:prSet presAssocID="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{11ABA92B-7987-4871-9FC6-FE48CA460BBF}" type="pres">
       <dgm:prSet presAssocID="{90C72F73-6BD1-4A5A-BBD5-682ACC43A3D8}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{45DDA016-8D26-41FE-8D03-707F8DE2A520}" type="pres">
       <dgm:prSet presAssocID="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" presName="hierRoot2" presStyleCnt="0">
@@ -3765,10 +5297,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B94E93D4-46DC-49C5-8FB2-E3C94B77E69B}" type="pres">
       <dgm:prSet presAssocID="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{91D307F8-3871-4650-9F72-037133755391}" type="pres">
       <dgm:prSet presAssocID="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5">
@@ -3788,18 +5334,46 @@
     <dgm:pt modelId="{FAF71E46-57C6-4B38-925F-9ED5E3678AF3}" type="pres">
       <dgm:prSet presAssocID="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{88CD9C8C-BC61-44D6-B7B1-57C7D7F7872B}" type="pres">
       <dgm:prSet presAssocID="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6CB40E40-6C42-46C7-B4DD-2FDB4E7DEC03}" type="pres">
       <dgm:prSet presAssocID="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{81B50FD0-A65E-4E72-8453-C10D77C5EAB6}" type="pres">
       <dgm:prSet presAssocID="{AD7BEF51-16BF-44F3-862C-61B083C04898}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B640A9D7-CD8C-42FA-A534-05F60F018333}" type="pres">
       <dgm:prSet presAssocID="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" presName="hierRoot2" presStyleCnt="0">
@@ -3808,10 +5382,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B3C46322-CF2F-4B66-ADE9-F98D3F2E615C}" type="pres">
       <dgm:prSet presAssocID="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7BB08C70-4955-4736-A901-D4285C7FA277}" type="pres">
       <dgm:prSet presAssocID="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5">
@@ -3820,22 +5408,57 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E2CCBA36-2CFA-40A7-AA6C-A7995578DA8E}" type="pres">
       <dgm:prSet presAssocID="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EFA7FAFE-7C1A-430F-94B0-BF9D3AD0340B}" type="pres">
       <dgm:prSet presAssocID="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3C38BB63-09F0-4418-8524-D690DFA648CD}" type="pres">
       <dgm:prSet presAssocID="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9B4CED0E-CDF7-4B93-AAB9-D7E3B456AE31}" type="pres">
       <dgm:prSet presAssocID="{059D93DA-3210-4533-9D6B-AFD52D6227FA}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B7E5C1FF-4E26-4ED4-8CCB-887EE34450C1}" type="pres">
       <dgm:prSet presAssocID="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" presName="hierRoot2" presStyleCnt="0">
@@ -3844,10 +5467,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FE8F2211-AC77-491B-9C50-21476532371E}" type="pres">
       <dgm:prSet presAssocID="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{678FEE9A-9C1D-4038-AFF6-7A293FC3E682}" type="pres">
       <dgm:prSet presAssocID="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5">
@@ -3867,14 +5504,35 @@
     <dgm:pt modelId="{811D7A81-B913-420C-9E77-25E79C5E164C}" type="pres">
       <dgm:prSet presAssocID="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C045F3B3-F6E8-4AFD-AEFE-2F9C6EC3B09C}" type="pres">
       <dgm:prSet presAssocID="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E3B30D20-3DE1-423D-9C5F-D368F02FBE04}" type="pres">
       <dgm:prSet presAssocID="{C778FE30-F139-4AB3-BF63-B596D5339C4F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C4367B86-4748-4078-BFEA-29E3CD583B68}" type="pres">
       <dgm:prSet presAssocID="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" presName="hierRoot2" presStyleCnt="0">
@@ -3883,10 +5541,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5652EDBD-EA5B-456B-A121-60A593D5EB89}" type="pres">
       <dgm:prSet presAssocID="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{83BA96E7-5897-4612-99C1-059460758FFD}" type="pres">
       <dgm:prSet presAssocID="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2">
@@ -3906,14 +5578,35 @@
     <dgm:pt modelId="{8346BB22-C3F0-4B1E-8570-3E3F9811F20E}" type="pres">
       <dgm:prSet presAssocID="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B7DAC1D6-3681-496B-A998-2BD09139532B}" type="pres">
       <dgm:prSet presAssocID="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B25933EF-0626-489A-9572-9FB188759B30}" type="pres">
       <dgm:prSet presAssocID="{4CEF3FA3-26AF-448A-BE1C-0A90341FA09F}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B6887CDD-5668-4DA4-8CBA-893CE7498A6E}" type="pres">
       <dgm:prSet presAssocID="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" presName="hierRoot2" presStyleCnt="0">
@@ -3922,10 +5615,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{60B20414-46EA-40CC-BF40-8B385B6125C3}" type="pres">
       <dgm:prSet presAssocID="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3E5E0A67-18C2-471A-84CB-051404B55243}" type="pres">
       <dgm:prSet presAssocID="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4">
@@ -3945,18 +5652,46 @@
     <dgm:pt modelId="{E4DCAA78-EF15-45F9-A6F1-B0DDEBBD4B5B}" type="pres">
       <dgm:prSet presAssocID="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{71F95481-53AB-4333-ADE9-39C1E0DB6DBD}" type="pres">
       <dgm:prSet presAssocID="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FE5A9ECF-9B33-4D9F-ACCB-3CB7F5DCD067}" type="pres">
       <dgm:prSet presAssocID="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{790A204A-3EE3-480F-A654-020C5AE35B05}" type="pres">
       <dgm:prSet presAssocID="{7261BD40-5D93-49AB-8D12-046C51308AA9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9B34619B-E4B0-4FF0-9C54-37742A986FAE}" type="pres">
       <dgm:prSet presAssocID="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" presName="hierRoot2" presStyleCnt="0">
@@ -3965,10 +5700,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9E00932B-8669-4F16-8F49-D363CD6A615C}" type="pres">
       <dgm:prSet presAssocID="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{39DA41F7-6F3E-47F7-9F5D-F1F48C1D9EAA}" type="pres">
       <dgm:prSet presAssocID="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4">
@@ -3988,26 +5737,68 @@
     <dgm:pt modelId="{CAEC87EB-CF61-4F7C-A33A-30CFE813B020}" type="pres">
       <dgm:prSet presAssocID="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A5B09690-EE68-42BF-AC40-90C308B761BF}" type="pres">
       <dgm:prSet presAssocID="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A2DB8FED-DE9D-4914-9788-9862F1C0F9D0}" type="pres">
       <dgm:prSet presAssocID="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C27DBADA-76E2-4C49-97F0-BCCDCBA0197A}" type="pres">
       <dgm:prSet presAssocID="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6ED9B8D6-5A3D-497A-9780-E7DFDBEF5E5C}" type="pres">
       <dgm:prSet presAssocID="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F361AB45-7B1C-490E-A41F-328CB83A4599}" type="pres">
       <dgm:prSet presAssocID="{09A5C815-68A0-4BBC-A745-7BBDDC41CE29}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D76A3DCA-B40E-45B5-B6D6-A019F2E02199}" type="pres">
       <dgm:prSet presAssocID="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" presName="hierRoot2" presStyleCnt="0">
@@ -4016,10 +5807,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8F2323B8-C7E6-477F-B9BD-A2C502491923}" type="pres">
       <dgm:prSet presAssocID="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8CB78D02-3DA7-44F6-99A3-7BC04780BD19}" type="pres">
       <dgm:prSet presAssocID="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5">
@@ -4039,14 +5844,35 @@
     <dgm:pt modelId="{9D4511FC-28D4-4E71-AE2A-4670C4B5A1E9}" type="pres">
       <dgm:prSet presAssocID="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A0883BB9-4FA5-4D2D-9D88-6C35B4BD640D}" type="pres">
       <dgm:prSet presAssocID="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{99E91B52-8532-4E4E-BCD1-992BFD5E4EF1}" type="pres">
       <dgm:prSet presAssocID="{E31245A2-C3C4-430B-A6C5-062E57CD3181}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{50635390-130F-48DA-B9A5-6EE0F030F5F7}" type="pres">
       <dgm:prSet presAssocID="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" presName="hierRoot2" presStyleCnt="0">
@@ -4055,10 +5881,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E97DCF15-8381-4A46-A6A0-2609EE77FDAB}" type="pres">
       <dgm:prSet presAssocID="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BBB94A51-0BB2-4CCE-BDB2-F659A623E4CC}" type="pres">
       <dgm:prSet presAssocID="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
@@ -4067,18 +5907,46 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5D454A54-D4E5-4161-A8CD-DA831ED54341}" type="pres">
       <dgm:prSet presAssocID="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2A851B79-12AD-4C87-A6AC-B6188DB4EEE1}" type="pres">
       <dgm:prSet presAssocID="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F0CD31F7-6C4C-43F4-9BF7-BD151117466A}" type="pres">
       <dgm:prSet presAssocID="{01C404C0-F658-4159-8711-C4BF068F04D2}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{38107CDC-B91F-4289-9342-77F060E1FA8D}" type="pres">
       <dgm:prSet presAssocID="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" presName="hierRoot2" presStyleCnt="0">
@@ -4087,10 +5955,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E2337A94-80E2-4D95-A1ED-A5D91EF364BB}" type="pres">
       <dgm:prSet presAssocID="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9E83477D-16C5-421C-8A13-C3D83EAD3358}" type="pres">
       <dgm:prSet presAssocID="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4">
@@ -4110,18 +5992,46 @@
     <dgm:pt modelId="{6382DC43-7127-4002-9F6D-578108E7C495}" type="pres">
       <dgm:prSet presAssocID="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CD4C816C-9CF4-4E2E-9E13-8752AE8F5E39}" type="pres">
       <dgm:prSet presAssocID="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D70B0EF0-5D1C-454E-A5F6-BBF23D941A91}" type="pres">
       <dgm:prSet presAssocID="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8D6C76EB-F978-40F0-A8AC-70F2E2E829DD}" type="pres">
       <dgm:prSet presAssocID="{2CA53407-25F2-4B78-A370-5454B037BEB6}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BE11C0AE-C1E7-4317-A7AB-98DDF4808280}" type="pres">
       <dgm:prSet presAssocID="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" presName="hierRoot2" presStyleCnt="0">
@@ -4130,10 +6040,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CDF9F30A-1379-4E2F-B0CC-F26F01BAEE3E}" type="pres">
       <dgm:prSet presAssocID="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{154B515C-6012-4488-B659-8F40EE7C299E}" type="pres">
       <dgm:prSet presAssocID="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4">
@@ -4153,77 +6077,119 @@
     <dgm:pt modelId="{7552EBD9-D6C4-45EC-B231-7ADA73A55172}" type="pres">
       <dgm:prSet presAssocID="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{60F9C596-39F0-4D58-9BF2-2315F3372B07}" type="pres">
       <dgm:prSet presAssocID="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FAB11889-9D8E-4AE1-B4E0-6AD7E483FB7F}" type="pres">
       <dgm:prSet presAssocID="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{88D924C0-F246-4671-95DF-7818974DF19E}" type="pres">
       <dgm:prSet presAssocID="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B36D9059-9DDA-4E6D-902D-C23278786851}" type="pres">
       <dgm:prSet presAssocID="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5B25D748-95E4-4218-A10A-105C422A0B2B}" type="pres">
       <dgm:prSet presAssocID="{532F4FDF-8128-4A37-8247-0AE769E2689D}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{F22479A7-8EC4-4324-AF6E-8FB47AAD2088}" type="presOf" srcId="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" destId="{7BB08C70-4955-4736-A901-D4285C7FA277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{68F6824B-E91A-4B33-B0D4-D954B6C3B1A7}" type="presOf" srcId="{AD7BEF51-16BF-44F3-862C-61B083C04898}" destId="{81B50FD0-A65E-4E72-8453-C10D77C5EAB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{47A85009-8F92-4C1E-93EF-307088325B4F}" type="presOf" srcId="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" destId="{CAEC87EB-CF61-4F7C-A33A-30CFE813B020}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B6E9018B-5D69-405C-9B47-27968D199A53}" type="presOf" srcId="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" destId="{E2CCBA36-2CFA-40A7-AA6C-A7995578DA8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7E645B1E-599F-40C4-B576-B99428AAD583}" type="presOf" srcId="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" destId="{3E5E0A67-18C2-471A-84CB-051404B55243}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1985426F-7701-417E-9AF1-FA23880A7B7B}" type="presOf" srcId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" destId="{8CB78D02-3DA7-44F6-99A3-7BC04780BD19}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F434DAE8-3676-4CA6-9224-D83C1A1A7AFE}" type="presOf" srcId="{E31245A2-C3C4-430B-A6C5-062E57CD3181}" destId="{99E91B52-8532-4E4E-BCD1-992BFD5E4EF1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{06D8CD72-F16A-4C3F-9B12-85D5369F516A}" type="presOf" srcId="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" destId="{E4DCAA78-EF15-45F9-A6F1-B0DDEBBD4B5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8401F004-9282-4671-84B7-D38916DFDA3D}" srcId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" destId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" srcOrd="0" destOrd="0" parTransId="{C778FE30-F139-4AB3-BF63-B596D5339C4F}" sibTransId="{19154DCB-2B14-4664-8DFD-4803B66765C8}"/>
+    <dgm:cxn modelId="{882E704E-2A81-4293-A12F-24DAF7524FC0}" type="presOf" srcId="{01C404C0-F658-4159-8711-C4BF068F04D2}" destId="{F0CD31F7-6C4C-43F4-9BF7-BD151117466A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{92C2CD30-275D-4CC4-84EE-AE38F378567D}" type="presOf" srcId="{2CA53407-25F2-4B78-A370-5454B037BEB6}" destId="{8D6C76EB-F978-40F0-A8AC-70F2E2E829DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8E595653-23E9-48CF-820F-58C164941702}" type="presOf" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{A022BC21-DB17-4B3B-AF97-7EE1DF6DEC6D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F292DC04-B506-4781-A928-A3734D522C60}" type="presOf" srcId="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" destId="{75491F9A-8068-4A2A-A838-ED7640EFFA97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EB7EEA23-98AE-4906-B175-EB7E55C0CD21}" srcId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" destId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" srcOrd="0" destOrd="0" parTransId="{E31245A2-C3C4-430B-A6C5-062E57CD3181}" sibTransId="{84DF3AFC-3E0E-49FC-9BCC-E9B5E0CCF77A}"/>
+    <dgm:cxn modelId="{BB9E32B3-78F0-4136-950F-ABA99EEE4C0E}" type="presOf" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{AD002F0E-2B30-4A18-AC56-DD1A37031771}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D9AD2C48-96E1-4D52-A791-4DF7B5FFAA03}" type="presOf" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{BBB94A51-0BB2-4CCE-BDB2-F659A623E4CC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5552A288-3117-492B-90FA-E701FABC7BFE}" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" srcOrd="0" destOrd="0" parTransId="{01C404C0-F658-4159-8711-C4BF068F04D2}" sibTransId="{5341D134-CF6D-4321-8C5E-70851D864AF0}"/>
+    <dgm:cxn modelId="{CCF58033-BB6B-4DB0-BAB5-A67FC74A52A3}" srcId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" destId="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" srcOrd="0" destOrd="0" parTransId="{4CEF3FA3-26AF-448A-BE1C-0A90341FA09F}" sibTransId="{D193F0D4-7D61-4744-9E47-55553F66FF29}"/>
+    <dgm:cxn modelId="{D144401F-7B97-484A-908A-266F64242EAE}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" srcOrd="4" destOrd="0" parTransId="{09A5C815-68A0-4BBC-A745-7BBDDC41CE29}" sibTransId="{41913D66-B64F-4DBF-A8BF-7F77208A26D7}"/>
+    <dgm:cxn modelId="{51B94926-0A52-4188-BE42-B1A0944D7075}" type="presOf" srcId="{8C78CF5D-7299-471B-87B1-BCF0A12155D2}" destId="{50A8912D-1A5F-4034-B3DF-5CD4E53ECC22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7B3D356E-8F4F-4071-A91A-0FDF92D9F85B}" type="presOf" srcId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" destId="{8346BB22-C3F0-4B1E-8570-3E3F9811F20E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{975AA3E1-46F6-4620-8D98-815E4FA1334A}" type="presOf" srcId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" destId="{678FEE9A-9C1D-4038-AFF6-7A293FC3E682}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7E645B1E-599F-40C4-B576-B99428AAD583}" type="presOf" srcId="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" destId="{3E5E0A67-18C2-471A-84CB-051404B55243}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1A1CCCA8-F44D-4DB4-A87D-AF7A867AD5A4}" srcId="{32D8121A-FDA8-45DE-B4FC-482DE26086E8}" destId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" srcOrd="0" destOrd="0" parTransId="{7CEDA0FD-609B-4E60-80E0-BD709E7ECA5F}" sibTransId="{151361E7-1F14-42FF-8580-7CA9A1C4E888}"/>
+    <dgm:cxn modelId="{CAE29DFA-34EC-4BB9-8249-AB8C948AE844}" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" srcOrd="1" destOrd="0" parTransId="{2CA53407-25F2-4B78-A370-5454B037BEB6}" sibTransId="{64052DF7-153C-400E-A2BF-E7143D7EB477}"/>
+    <dgm:cxn modelId="{3DAD8F2E-9F30-4AE7-B07C-96E78CAB7AE3}" type="presOf" srcId="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" destId="{39DA41F7-6F3E-47F7-9F5D-F1F48C1D9EAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{92AA7539-EE8B-42A0-9C0C-36840F23E56C}" type="presOf" srcId="{7261BD40-5D93-49AB-8D12-046C51308AA9}" destId="{790A204A-3EE3-480F-A654-020C5AE35B05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3A7A12C0-38DB-45B9-B398-623C624ED67B}" type="presOf" srcId="{90C72F73-6BD1-4A5A-BBD5-682ACC43A3D8}" destId="{11ABA92B-7987-4871-9FC6-FE48CA460BBF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A5D32510-7E06-48C0-A423-6C507C52252D}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" srcOrd="0" destOrd="0" parTransId="{8C78CF5D-7299-471B-87B1-BCF0A12155D2}" sibTransId="{C25F1AD3-553F-4972-BB4E-4BA9B6D6357B}"/>
-    <dgm:cxn modelId="{51B94926-0A52-4188-BE42-B1A0944D7075}" type="presOf" srcId="{8C78CF5D-7299-471B-87B1-BCF0A12155D2}" destId="{50A8912D-1A5F-4034-B3DF-5CD4E53ECC22}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BB9E32B3-78F0-4136-950F-ABA99EEE4C0E}" type="presOf" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{AD002F0E-2B30-4A18-AC56-DD1A37031771}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E0D7918E-14C7-4B77-965D-553758D71EDF}" type="presOf" srcId="{32D8121A-FDA8-45DE-B4FC-482DE26086E8}" destId="{5476A94C-FBAD-4D3B-8E90-18BB55FCE2D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{882E704E-2A81-4293-A12F-24DAF7524FC0}" type="presOf" srcId="{01C404C0-F658-4159-8711-C4BF068F04D2}" destId="{F0CD31F7-6C4C-43F4-9BF7-BD151117466A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D9AD2C48-96E1-4D52-A791-4DF7B5FFAA03}" type="presOf" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{BBB94A51-0BB2-4CCE-BDB2-F659A623E4CC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F434DAE8-3676-4CA6-9224-D83C1A1A7AFE}" type="presOf" srcId="{E31245A2-C3C4-430B-A6C5-062E57CD3181}" destId="{99E91B52-8532-4E4E-BCD1-992BFD5E4EF1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1985426F-7701-417E-9AF1-FA23880A7B7B}" type="presOf" srcId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" destId="{8CB78D02-3DA7-44F6-99A3-7BC04780BD19}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{70EC91E2-307F-4C6F-9760-A4B3E1285884}" type="presOf" srcId="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" destId="{154B515C-6012-4488-B659-8F40EE7C299E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9F832560-8CC6-478C-95E8-EB5EC500E5E5}" type="presOf" srcId="{09A5C815-68A0-4BBC-A745-7BBDDC41CE29}" destId="{F361AB45-7B1C-490E-A41F-328CB83A4599}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D144401F-7B97-484A-908A-266F64242EAE}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" srcOrd="4" destOrd="0" parTransId="{09A5C815-68A0-4BBC-A745-7BBDDC41CE29}" sibTransId="{41913D66-B64F-4DBF-A8BF-7F77208A26D7}"/>
-    <dgm:cxn modelId="{F22479A7-8EC4-4324-AF6E-8FB47AAD2088}" type="presOf" srcId="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" destId="{7BB08C70-4955-4736-A901-D4285C7FA277}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CCF58033-BB6B-4DB0-BAB5-A67FC74A52A3}" srcId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" destId="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" srcOrd="0" destOrd="0" parTransId="{4CEF3FA3-26AF-448A-BE1C-0A90341FA09F}" sibTransId="{D193F0D4-7D61-4744-9E47-55553F66FF29}"/>
+    <dgm:cxn modelId="{D59DE322-C5A3-4FA3-8586-42DA1F9771C2}" type="presOf" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{5D454A54-D4E5-4161-A8CD-DA831ED54341}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E291CE81-AC39-497A-AE5E-2F5DBF0881E2}" type="presOf" srcId="{4CEF3FA3-26AF-448A-BE1C-0A90341FA09F}" destId="{B25933EF-0626-489A-9572-9FB188759B30}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6FBE9580-7972-4EA2-B55C-42A651C99A9D}" type="presOf" srcId="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" destId="{E53CAD06-B915-4BAA-AB61-72CD698F8DF0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D59DE322-C5A3-4FA3-8586-42DA1F9771C2}" type="presOf" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{5D454A54-D4E5-4161-A8CD-DA831ED54341}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8CD2DEEE-7D35-447A-B80E-DDB16FFFBF6B}" type="presOf" srcId="{C778FE30-F139-4AB3-BF63-B596D5339C4F}" destId="{E3B30D20-3DE1-423D-9C5F-D368F02FBE04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EB7EEA23-98AE-4906-B175-EB7E55C0CD21}" srcId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" destId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" srcOrd="0" destOrd="0" parTransId="{E31245A2-C3C4-430B-A6C5-062E57CD3181}" sibTransId="{84DF3AFC-3E0E-49FC-9BCC-E9B5E0CCF77A}"/>
-    <dgm:cxn modelId="{7B3D356E-8F4F-4071-A91A-0FDF92D9F85B}" type="presOf" srcId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" destId="{8346BB22-C3F0-4B1E-8570-3E3F9811F20E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EE5A76BA-3E81-4E1B-93AD-A5FDB1B58FDA}" type="presOf" srcId="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" destId="{91D307F8-3871-4650-9F72-037133755391}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{15870D43-CABE-49CF-AE35-B8BC854EB061}" type="presOf" srcId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" destId="{9D4511FC-28D4-4E71-AE2A-4670C4B5A1E9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{92C2CD30-275D-4CC4-84EE-AE38F378567D}" type="presOf" srcId="{2CA53407-25F2-4B78-A370-5454B037BEB6}" destId="{8D6C76EB-F978-40F0-A8AC-70F2E2E829DD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1A1CCCA8-F44D-4DB4-A87D-AF7A867AD5A4}" srcId="{32D8121A-FDA8-45DE-B4FC-482DE26086E8}" destId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" srcOrd="0" destOrd="0" parTransId="{7CEDA0FD-609B-4E60-80E0-BD709E7ECA5F}" sibTransId="{151361E7-1F14-42FF-8580-7CA9A1C4E888}"/>
-    <dgm:cxn modelId="{F292DC04-B506-4781-A928-A3734D522C60}" type="presOf" srcId="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" destId="{75491F9A-8068-4A2A-A838-ED7640EFFA97}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8401F004-9282-4671-84B7-D38916DFDA3D}" srcId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" destId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" srcOrd="0" destOrd="0" parTransId="{C778FE30-F139-4AB3-BF63-B596D5339C4F}" sibTransId="{19154DCB-2B14-4664-8DFD-4803B66765C8}"/>
-    <dgm:cxn modelId="{06D8CD72-F16A-4C3F-9B12-85D5369F516A}" type="presOf" srcId="{A3ACAEF3-ABDA-43D4-A2FC-271761031490}" destId="{E4DCAA78-EF15-45F9-A6F1-B0DDEBBD4B5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{90D9045E-ACF5-43E5-A3CF-E7F73B08ED09}" type="presOf" srcId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" destId="{811D7A81-B913-420C-9E77-25E79C5E164C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5532683F-EA44-4A00-A709-65A14A318635}" type="presOf" srcId="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" destId="{9E83477D-16C5-421C-8A13-C3D83EAD3358}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{45231A15-DE85-4713-A11B-264CB5FBF98C}" srcId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" destId="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" srcOrd="1" destOrd="0" parTransId="{7261BD40-5D93-49AB-8D12-046C51308AA9}" sibTransId="{27BD4F11-2664-4B54-A045-35DC94662080}"/>
-    <dgm:cxn modelId="{47A85009-8F92-4C1E-93EF-307088325B4F}" type="presOf" srcId="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" destId="{CAEC87EB-CF61-4F7C-A33A-30CFE813B020}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{A61ADC49-AAB0-425E-8EBE-3CEAC645D15D}" type="presOf" srcId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" destId="{83BA96E7-5897-4612-99C1-059460758FFD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F1C247F6-1A6D-4AEF-9B91-7261B653DF91}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" srcOrd="2" destOrd="0" parTransId="{AD7BEF51-16BF-44F3-862C-61B083C04898}" sibTransId="{3E9AA3C0-1336-4BE7-B8BC-7B93A3756D3E}"/>
-    <dgm:cxn modelId="{CAE29DFA-34EC-4BB9-8249-AB8C948AE844}" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" srcOrd="1" destOrd="0" parTransId="{2CA53407-25F2-4B78-A370-5454B037BEB6}" sibTransId="{64052DF7-153C-400E-A2BF-E7143D7EB477}"/>
-    <dgm:cxn modelId="{B0854653-A3D5-4E33-B081-4F9C5F83D151}" type="presOf" srcId="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" destId="{6382DC43-7127-4002-9F6D-578108E7C495}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{68F6824B-E91A-4B33-B0D4-D954B6C3B1A7}" type="presOf" srcId="{AD7BEF51-16BF-44F3-862C-61B083C04898}" destId="{81B50FD0-A65E-4E72-8453-C10D77C5EAB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4FE0EC82-A7C7-45F3-9000-7B63937A4AF5}" type="presOf" srcId="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" destId="{7552EBD9-D6C4-45EC-B231-7ADA73A55172}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C94E8023-05F4-4022-99E5-A6BFF26822E6}" type="presOf" srcId="{059D93DA-3210-4533-9D6B-AFD52D6227FA}" destId="{9B4CED0E-CDF7-4B93-AAB9-D7E3B456AE31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B6E9018B-5D69-405C-9B47-27968D199A53}" type="presOf" srcId="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" destId="{E2CCBA36-2CFA-40A7-AA6C-A7995578DA8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C90EB06D-8CA8-4990-8108-BBE1AC4B4024}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" srcOrd="3" destOrd="0" parTransId="{059D93DA-3210-4533-9D6B-AFD52D6227FA}" sibTransId="{97A108C5-8F14-4CA4-8B71-A019C5549922}"/>
-    <dgm:cxn modelId="{5552A288-3117-492B-90FA-E701FABC7BFE}" srcId="{FEAEDAAC-38BC-4C59-873E-4D6160F4BC08}" destId="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" srcOrd="0" destOrd="0" parTransId="{01C404C0-F658-4159-8711-C4BF068F04D2}" sibTransId="{5341D134-CF6D-4321-8C5E-70851D864AF0}"/>
-    <dgm:cxn modelId="{3DAD8F2E-9F30-4AE7-B07C-96E78CAB7AE3}" type="presOf" srcId="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" destId="{39DA41F7-6F3E-47F7-9F5D-F1F48C1D9EAA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{9C27B972-80B6-4F8A-AA75-8F289256AD54}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" srcOrd="1" destOrd="0" parTransId="{90C72F73-6BD1-4A5A-BBD5-682ACC43A3D8}" sibTransId="{2FE5AB37-3057-48E1-BA94-9118F81ABE87}"/>
     <dgm:cxn modelId="{81D1C7DA-C0EB-4BB5-A65C-16A48A72075E}" type="presOf" srcId="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" destId="{FAF71E46-57C6-4B38-925F-9ED5E3678AF3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C90EB06D-8CA8-4990-8108-BBE1AC4B4024}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" srcOrd="3" destOrd="0" parTransId="{059D93DA-3210-4533-9D6B-AFD52D6227FA}" sibTransId="{97A108C5-8F14-4CA4-8B71-A019C5549922}"/>
+    <dgm:cxn modelId="{5532683F-EA44-4A00-A709-65A14A318635}" type="presOf" srcId="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" destId="{9E83477D-16C5-421C-8A13-C3D83EAD3358}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6FBE9580-7972-4EA2-B55C-42A651C99A9D}" type="presOf" srcId="{0248F072-17A6-4E04-B3F4-9D8D831EB702}" destId="{E53CAD06-B915-4BAA-AB61-72CD698F8DF0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{90D9045E-ACF5-43E5-A3CF-E7F73B08ED09}" type="presOf" srcId="{85B6D5DF-5464-48F5-B57D-1FD92147894E}" destId="{811D7A81-B913-420C-9E77-25E79C5E164C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8CD2DEEE-7D35-447A-B80E-DDB16FFFBF6B}" type="presOf" srcId="{C778FE30-F139-4AB3-BF63-B596D5339C4F}" destId="{E3B30D20-3DE1-423D-9C5F-D368F02FBE04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B0854653-A3D5-4E33-B081-4F9C5F83D151}" type="presOf" srcId="{37F231C9-8DEF-4BEA-BBE5-6C3282F0FCD4}" destId="{6382DC43-7127-4002-9F6D-578108E7C495}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{45231A15-DE85-4713-A11B-264CB5FBF98C}" srcId="{CDBE6F08-C9FF-4F07-B4D8-FD4A883CA0F7}" destId="{4E5F0542-42DE-4A46-9052-1DED12C4D233}" srcOrd="1" destOrd="0" parTransId="{7261BD40-5D93-49AB-8D12-046C51308AA9}" sibTransId="{27BD4F11-2664-4B54-A045-35DC94662080}"/>
+    <dgm:cxn modelId="{E0D7918E-14C7-4B77-965D-553758D71EDF}" type="presOf" srcId="{32D8121A-FDA8-45DE-B4FC-482DE26086E8}" destId="{5476A94C-FBAD-4D3B-8E90-18BB55FCE2D2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C94E8023-05F4-4022-99E5-A6BFF26822E6}" type="presOf" srcId="{059D93DA-3210-4533-9D6B-AFD52D6227FA}" destId="{9B4CED0E-CDF7-4B93-AAB9-D7E3B456AE31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3A7A12C0-38DB-45B9-B398-623C624ED67B}" type="presOf" srcId="{90C72F73-6BD1-4A5A-BBD5-682ACC43A3D8}" destId="{11ABA92B-7987-4871-9FC6-FE48CA460BBF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EE5A76BA-3E81-4E1B-93AD-A5FDB1B58FDA}" type="presOf" srcId="{034974F4-FAE7-4C83-B536-C6C9E21B6267}" destId="{91D307F8-3871-4650-9F72-037133755391}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9F832560-8CC6-478C-95E8-EB5EC500E5E5}" type="presOf" srcId="{09A5C815-68A0-4BBC-A745-7BBDDC41CE29}" destId="{F361AB45-7B1C-490E-A41F-328CB83A4599}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{15870D43-CABE-49CF-AE35-B8BC854EB061}" type="presOf" srcId="{6F5D68E3-760E-4A1F-B56B-08B8A1F20546}" destId="{9D4511FC-28D4-4E71-AE2A-4670C4B5A1E9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4FE0EC82-A7C7-45F3-9000-7B63937A4AF5}" type="presOf" srcId="{A1CD1AB7-B4E6-4E82-8C39-76F06A1ECC4A}" destId="{7552EBD9-D6C4-45EC-B231-7ADA73A55172}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F1C247F6-1A6D-4AEF-9B91-7261B653DF91}" srcId="{532F4FDF-8128-4A37-8247-0AE769E2689D}" destId="{6D114584-6369-4C1B-AFB9-9E017BBD74BF}" srcOrd="2" destOrd="0" parTransId="{AD7BEF51-16BF-44F3-862C-61B083C04898}" sibTransId="{3E9AA3C0-1336-4BE7-B8BC-7B93A3756D3E}"/>
     <dgm:cxn modelId="{56DE5A50-F9C7-42FA-9DD4-9DF00DD7AC57}" type="presParOf" srcId="{5476A94C-FBAD-4D3B-8E90-18BB55FCE2D2}" destId="{21D75F76-0EF0-44EE-81A8-21EB55D3FE12}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{634648C0-2477-4778-95DA-0362B39035DA}" type="presParOf" srcId="{21D75F76-0EF0-44EE-81A8-21EB55D3FE12}" destId="{68BF83D9-1178-4E04-A161-61AAC1ED9766}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{665E0E81-F289-49E9-90C9-D59FA7C2F44F}" type="presParOf" srcId="{68BF83D9-1178-4E04-A161-61AAC1ED9766}" destId="{AD002F0E-2B30-4A18-AC56-DD1A37031771}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -4504,8 +6470,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6118580" y="628345"/>
-          <a:ext cx="2812360" cy="263364"/>
+          <a:off x="6497951" y="628345"/>
+          <a:ext cx="2432989" cy="263364"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4522,10 +6488,10 @@
                 <a:pt x="0" y="131682"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2812360" y="131682"/>
+                <a:pt x="2432989" y="131682"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2812360" y="263364"/>
+                <a:pt x="2432989" y="263364"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4559,6 +6525,64 @@
       </dsp:style>
     </dsp:sp>
     <dsp:sp modelId="{C7164AFE-A6B3-4CFC-BB20-3F0B186B4246}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6598281" y="1518769"/>
+          <a:ext cx="188117" cy="2357742"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2357742"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="188117" y="2357742"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{30787840-8AB1-49EE-9B27-FD1810E4D221}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
@@ -4616,7 +6640,7 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{30787840-8AB1-49EE-9B27-FD1810E4D221}">
+    <dsp:sp modelId="{BE3D61E7-4F44-4C4B-8417-C0E21524D435}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
@@ -4681,8 +6705,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6118580" y="628345"/>
-          <a:ext cx="981347" cy="263364"/>
+          <a:off x="6497951" y="628345"/>
+          <a:ext cx="601976" cy="263364"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4699,10 +6723,10 @@
                 <a:pt x="0" y="131682"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="981347" y="131682"/>
+                <a:pt x="601976" y="131682"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="981347" y="263364"/>
+                <a:pt x="601976" y="263364"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4742,7 +6766,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5080798" y="1518769"/>
+          <a:off x="5080798" y="2409193"/>
           <a:ext cx="188117" cy="1467318"/>
         </a:xfrm>
         <a:custGeom>
@@ -4800,7 +6824,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5080798" y="1518769"/>
+          <a:off x="5080798" y="2409193"/>
           <a:ext cx="188117" cy="576894"/>
         </a:xfrm>
         <a:custGeom>
@@ -4858,8 +6882,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5582445" y="628345"/>
-          <a:ext cx="536135" cy="263364"/>
+          <a:off x="4064962" y="1518769"/>
+          <a:ext cx="1517483" cy="263364"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4870,16 +6894,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="536135" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
-              <a:lnTo>
-                <a:pt x="536135" y="131682"/>
-              </a:lnTo>
               <a:lnTo>
                 <a:pt x="0" y="131682"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="263364"/>
+                <a:pt x="1517483" y="131682"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1517483" y="263364"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4888,7 +6912,7 @@
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4977,8 +7001,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3306220" y="1518769"/>
-          <a:ext cx="758741" cy="263364"/>
+          <a:off x="4019242" y="1518769"/>
+          <a:ext cx="91440" cy="263364"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4989,16 +7013,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="131682"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="758741" y="131682"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="758741" y="263364"/>
+                <a:pt x="45720" y="263364"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5271,7 +7289,7 @@
       <dsp:spPr>
         <a:xfrm>
           <a:off x="2547479" y="1518769"/>
-          <a:ext cx="758741" cy="263364"/>
+          <a:ext cx="1517483" cy="263364"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5282,10 +7300,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="758741" y="0"/>
+                <a:pt x="1517483" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="758741" y="131682"/>
+                <a:pt x="1517483" y="131682"/>
               </a:lnTo>
               <a:lnTo>
                 <a:pt x="0" y="131682"/>
@@ -5331,8 +7349,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3306220" y="628345"/>
-          <a:ext cx="2812360" cy="263364"/>
+          <a:off x="4064962" y="628345"/>
+          <a:ext cx="2432989" cy="263364"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5343,10 +7361,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2812360" y="0"/>
+                <a:pt x="2432989" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2812360" y="131682"/>
+                <a:pt x="2432989" y="131682"/>
               </a:lnTo>
               <a:lnTo>
                 <a:pt x="0" y="131682"/>
@@ -5392,45 +7410,56 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5491521" y="1286"/>
+          <a:off x="5870892" y="1286"/>
           <a:ext cx="1254118" cy="627059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -5457,7 +7486,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5491521" y="1286"/>
+        <a:off x="5870892" y="1286"/>
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -5468,45 +7497,56 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2679161" y="891710"/>
+          <a:off x="3437903" y="891710"/>
           <a:ext cx="1254118" cy="627059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -5533,7 +7573,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2679161" y="891710"/>
+        <a:off x="3437903" y="891710"/>
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -5550,39 +7590,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -5626,39 +7677,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -5702,39 +7764,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -5778,39 +7851,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -5854,39 +7938,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -5930,39 +8025,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6006,39 +8112,71 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6076,45 +8214,56 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4955386" y="891710"/>
+          <a:off x="4955386" y="1782134"/>
           <a:ext cx="1254118" cy="627059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6141,7 +8290,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4955386" y="891710"/>
+        <a:off x="4955386" y="1782134"/>
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6152,45 +8301,56 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5268915" y="1782134"/>
+          <a:off x="5268915" y="2672557"/>
           <a:ext cx="1254118" cy="627059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6217,7 +8377,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5268915" y="1782134"/>
+        <a:off x="5268915" y="2672557"/>
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6228,45 +8388,56 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5268915" y="2672557"/>
+          <a:off x="5268915" y="3562981"/>
           <a:ext cx="1254118" cy="627059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6293,7 +8464,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5268915" y="2672557"/>
+        <a:off x="5268915" y="3562981"/>
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6310,39 +8481,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6373,7 +8555,7 @@
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7F4C330C-8D4A-4041-A83C-037B8631E559}">
+    <dsp:sp modelId="{7BE414DC-6F82-4B0D-BA9C-0E6D713746EF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
@@ -6386,39 +8568,137 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="13335" tIns="13335" rIns="13335" bIns="13335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="933450">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="2100" kern="1200"/>
+            <a:t>Tutorial</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6786398" y="1782134"/>
+        <a:ext cx="1254118" cy="627059"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7F4C330C-8D4A-4041-A83C-037B8631E559}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6786398" y="2672557"/>
+          <a:ext cx="1254118" cy="627059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6445,7 +8725,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6786398" y="1782134"/>
+        <a:off x="6786398" y="2672557"/>
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6456,45 +8736,56 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6786398" y="2672557"/>
+          <a:off x="6786398" y="3562981"/>
           <a:ext cx="1254118" cy="627059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6521,7 +8812,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6786398" y="2672557"/>
+        <a:off x="6786398" y="3562981"/>
         <a:ext cx="1254118" cy="627059"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -6538,39 +8829,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6614,39 +8916,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6690,39 +9003,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -6766,39 +9090,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -7495,39 +9830,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -7571,39 +9917,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -7647,39 +10004,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -7723,39 +10091,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -7799,39 +10178,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -7875,39 +10265,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -7951,39 +10352,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -8027,39 +10439,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -8103,39 +10526,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -8179,39 +10613,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -8255,39 +10700,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -8331,39 +10787,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1"/>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
       </dsp:spPr>
       <dsp:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
@@ -10691,11 +13158,11 @@
 </file>
 
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
-<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3">
   <dgm:title val=""/>
   <dgm:desc val=""/>
   <dgm:catLst>
-    <dgm:cat type="simple" pri="10100"/>
+    <dgm:cat type="simple" pri="10300"/>
   </dgm:catLst>
   <dgm:scene3d>
     <a:camera prst="orthographicFront"/>
@@ -10704,59 +13171,65 @@
   <dgm:styleLbl name="node0">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="lnNode1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
       <a:effectRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="vennNode1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
       <a:effectRef idx="0">
@@ -10775,105 +13248,113 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node2">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node3">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node4">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -10885,13 +13366,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -10905,13 +13386,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -10925,13 +13406,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -10948,14 +13429,14 @@
       <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -10970,14 +13451,14 @@
       <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -10992,14 +13473,14 @@
       <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -11031,13 +13512,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -11046,110 +13527,120 @@
   <dgm:styleLbl name="asst0">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst2">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst3">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst4">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -11161,17 +13652,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -11183,17 +13674,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -11205,17 +13696,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -11227,17 +13718,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -11329,7 +13820,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11349,7 +13840,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11369,7 +13860,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11409,7 +13900,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11429,10 +13920,10 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
       <a:effectRef idx="0">
@@ -11449,7 +13940,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11469,7 +13960,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11489,7 +13980,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11509,7 +14000,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11529,7 +14020,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11549,7 +14040,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11569,7 +14060,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11589,7 +14080,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11609,7 +14100,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -11635,7 +14126,7 @@
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -11655,7 +14146,7 @@
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -11684,18 +14175,20 @@
   <dgm:styleLbl name="fgShp">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -11725,11 +14218,11 @@
 </file>
 
 <file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
-<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple3">
   <dgm:title val=""/>
   <dgm:desc val=""/>
   <dgm:catLst>
-    <dgm:cat type="simple" pri="10100"/>
+    <dgm:cat type="simple" pri="10300"/>
   </dgm:catLst>
   <dgm:scene3d>
     <a:camera prst="orthographicFront"/>
@@ -11738,59 +14231,65 @@
   <dgm:styleLbl name="node0">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="lnNode1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
       <a:effectRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="vennNode1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
       <a:effectRef idx="0">
@@ -11809,105 +14308,113 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node2">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node3">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="node4">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -11919,13 +14426,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -11939,13 +14446,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -11959,13 +14466,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -11982,14 +14489,14 @@
       <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12004,14 +14511,14 @@
       <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12026,14 +14533,14 @@
       <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12065,13 +14572,13 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -12080,110 +14587,120 @@
   <dgm:styleLbl name="asst0">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst1">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst2">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst3">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
   <dgm:styleLbl name="asst4">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="0">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12195,17 +14712,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12217,17 +14734,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12239,17 +14756,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12261,17 +14778,17 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor">
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1"/>
       </a:fontRef>
     </dgm:style>
   </dgm:styleLbl>
@@ -12363,7 +14880,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12383,7 +14900,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12403,7 +14920,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12443,7 +14960,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12463,10 +14980,10 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
       <a:effectRef idx="0">
@@ -12483,7 +15000,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12503,7 +15020,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12523,7 +15040,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12543,7 +15060,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12563,7 +15080,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12583,7 +15100,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12603,7 +15120,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12623,7 +15140,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12643,7 +15160,7 @@
     <dgm:sp3d/>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
       <a:fillRef idx="1">
@@ -12669,7 +15186,7 @@
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -12689,7 +15206,7 @@
       <a:fillRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -12718,18 +15235,20 @@
   <dgm:styleLbl name="fgShp">
     <dgm:scene3d>
       <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
+      <a:lightRig rig="flat" dir="t"/>
     </dgm:scene3d>
-    <dgm:sp3d/>
+    <dgm:sp3d prstMaterial="dkEdge">
+      <a:bevelT w="8200" h="38100"/>
+    </dgm:sp3d>
     <dgm:txPr/>
     <dgm:style>
-      <a:lnRef idx="2">
+      <a:lnRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:lnRef>
-      <a:fillRef idx="1">
+      <a:fillRef idx="2">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:fillRef>
-      <a:effectRef idx="0">
+      <a:effectRef idx="1">
         <a:scrgbClr r="0" g="0" b="0"/>
       </a:effectRef>
       <a:fontRef idx="minor"/>
@@ -12762,74 +15281,73 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="500061"/>
+          <a:ext cx="17192625" cy="6291263"/>
+          <a:chOff x="0" y="500061"/>
+          <a:chExt cx="17192625" cy="6291263"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Diagram 1"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="5400675" y="628649"/>
+          <a:ext cx="11791950" cy="5972175"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+            <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Diagram 2"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="0" y="500061"/>
+          <a:ext cx="6572250" cy="6291263"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+            <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -12840,8 +15358,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3314700" y="1628775"/>
-          <a:ext cx="4895850" cy="1066800"/>
+          <a:off x="3314700" y="1914525"/>
+          <a:ext cx="5800725" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13156,8 +15674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
